--- a/Datasets/homicide_report_total_and_sex.xlsx
+++ b/Datasets/homicide_report_total_and_sex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroszekely/Dropbox/projects/table-understanding/datasets/homicides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroszekely/Documents/GitHub/t2wml/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A52B0-5F6F-234A-AC79-6EDBF62E121F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F988301-5408-334C-8EE7-0BD15E6D463A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30140" windowHeight="17780" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30140" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table-1a" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="511">
   <si>
     <t>UNODC Name</t>
   </si>
@@ -1498,9 +1498,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Added totals row to see how it affects the definition of the mapping</t>
-  </si>
-  <si>
     <t>Variation of table-2a where categories are mentioned only once</t>
   </si>
   <si>
@@ -1587,6 +1584,12 @@
   <si>
     <t>total</t>
   </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>This file has totals by country</t>
+  </si>
 </sst>
 </file>
 
@@ -1598,9 +1601,16 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1700,8 +1710,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1790,6 +1807,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3"/>
         <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1921,95 +1944,140 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="10" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2021,7 +2089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2033,53 +2101,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="10" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="11" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2388,40 +2413,40 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="63">
+      <c r="C3" s="49"/>
+      <c r="D3" s="47">
         <v>2000</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="47">
         <v>2001</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="47">
         <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="46">
         <v>1</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="46">
         <v>2</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="46">
         <v>2</v>
       </c>
       <c r="H4"/>
@@ -2429,22 +2454,22 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="46">
         <v>4</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="46">
         <v>5</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="46">
         <v>6</v>
       </c>
       <c r="H5"/>
@@ -2452,43 +2477,43 @@
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="46">
         <v>2</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="46">
         <v>1</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="46"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="46">
         <v>4</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="46">
         <v>8</v>
       </c>
       <c r="H7"/>
@@ -2496,42 +2521,42 @@
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="46">
         <v>2</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="46">
         <v>1</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="46">
         <v>1</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="46">
         <v>1</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2577,58 +2602,58 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="25" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="25" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>500</v>
-      </c>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>247</v>
       </c>
       <c r="C19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2666,31 +2691,31 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>475</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -2863,7 +2888,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -2896,37 +2921,37 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="B3" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="48" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -3083,124 +3108,124 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="85" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="54" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>249</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>249</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="F6" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>490</v>
+      <c r="G6" s="33" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>491</v>
+      <c r="G7" s="33" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>492</v>
+      <c r="G8" s="33" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3261,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>475</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3250,12 +3275,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -3264,10 +3289,10 @@
       <c r="B5" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3278,10 +3303,10 @@
       <c r="B6" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>4</v>
       </c>
     </row>
@@ -3292,20 +3317,20 @@
       <c r="B7" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="36">
         <v>2</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
       <c r="E8">
         <f>B8</f>
         <v>0</v>
@@ -3318,10 +3343,10 @@
       <c r="B9" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="36">
         <v>2</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>4</v>
       </c>
     </row>
@@ -3332,10 +3357,10 @@
       <c r="B10" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>1</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>466</v>
       </c>
     </row>
@@ -3346,18 +3371,18 @@
       <c r="B11" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3366,10 +3391,10 @@
       <c r="B13" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="36">
         <v>2</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3380,10 +3405,10 @@
       <c r="B14" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="36">
         <v>1</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3394,10 +3419,10 @@
       <c r="B15" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="36">
         <v>3</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3432,28 +3457,28 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="B3" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="86" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -3467,7 +3492,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="27" t="s">
         <v>275</v>
       </c>
@@ -3479,7 +3504,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="27" t="s">
         <v>275</v>
       </c>
@@ -3491,7 +3516,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="86" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -3505,7 +3530,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="27" t="s">
         <v>251</v>
       </c>
@@ -3517,7 +3542,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="27" t="s">
         <v>251</v>
       </c>
@@ -3527,7 +3552,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="86" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -3541,7 +3566,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="27" t="s">
         <v>251</v>
       </c>
@@ -3553,7 +3578,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="27" t="s">
         <v>251</v>
       </c>
@@ -3565,15 +3590,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="86" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -3587,7 +3612,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="27" t="s">
         <v>275</v>
       </c>
@@ -3599,7 +3624,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="27" t="s">
         <v>275</v>
       </c>
@@ -3611,7 +3636,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="86" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -3625,7 +3650,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="27" t="s">
         <v>251</v>
       </c>
@@ -3635,7 +3660,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="27" t="s">
         <v>251</v>
       </c>
@@ -3647,7 +3672,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="86" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -3661,7 +3686,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="27" t="s">
         <v>251</v>
       </c>
@@ -3673,7 +3698,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="27" t="s">
         <v>251</v>
       </c>
@@ -3717,178 +3742,178 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="B3" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="79">
         <v>2000</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="36">
         <v>2</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="48">
+      <c r="A8" s="79">
         <v>2001</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="36">
         <v>2</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>1</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>466</v>
       </c>
       <c r="G10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>1</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="79">
         <v>2002</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="36">
         <v>2</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="36">
         <v>3</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3920,169 +3945,169 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40">
         <v>2000</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="41">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>1</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="36">
         <v>2</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="36">
         <v>2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40">
         <v>2001</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="41">
         <v>2001</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>1</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="36" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <v>1</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40">
         <v>2002</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="41">
         <v>2002</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="36">
         <v>2</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="36">
         <v>3</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4099,288 +4124,288 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="81"/>
+    <col min="1" max="1" width="8" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="59" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="57" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="76">
+      <c r="A4" s="73">
         <v>2000</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="71">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="64">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="76">
+      <c r="A11" s="73">
         <v>2001</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="64">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
-      <c r="B15" s="83" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="64" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="76">
+      <c r="A18" s="73">
         <v>2002</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="64">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="85"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="64">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="64">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4411,19 +4436,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="57" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4438,7 +4463,7 @@
       <c r="A5" s="1">
         <v>2000</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -4447,26 +4472,26 @@
       <c r="D5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -4475,26 +4500,26 @@
       <c r="D7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="36"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="27" t="s">
         <v>251</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -4503,20 +4528,20 @@
       <c r="D9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="27" t="s">
         <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="51">
         <v>1</v>
       </c>
     </row>
@@ -4531,7 +4556,7 @@
       <c r="A12" s="1">
         <v>2001</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -4540,26 +4565,26 @@
       <c r="D12" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="36"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -4568,26 +4593,26 @@
       <c r="D14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="36"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="27" t="s">
         <v>251</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="51" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -4596,20 +4621,20 @@
       <c r="D16" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="27" t="s">
         <v>251</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="51">
         <v>1</v>
       </c>
     </row>
@@ -4624,7 +4649,7 @@
       <c r="A19" s="1">
         <v>2002</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -4633,26 +4658,26 @@
       <c r="D19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="36"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="51">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -4661,24 +4686,24 @@
       <c r="D21" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="67"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="36"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="27" t="s">
         <v>251</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="51">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -4687,20 +4712,20 @@
       <c r="D23" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="36"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="27" t="s">
         <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4719,201 +4744,201 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="B2" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40">
         <v>2000</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="41">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <v>1</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>2</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="C7" s="47">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="45">
         <f>SUM(C4:C6)</f>
         <v>5</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <f>SUM(D4:D6)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40">
         <v>2001</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="41">
         <v>2001</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="36">
         <v>2</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>1</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>1</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="C12" s="47">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="45">
         <f>SUM(C9:C11)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="45">
         <f>SUM(D9:D11)</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40">
         <v>2002</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="41">
         <v>2002</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="36">
         <v>2</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="36">
         <v>3</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
-        <v>508</v>
+      <c r="B17" s="43" t="s">
+        <v>507</v>
       </c>
       <c r="C17">
         <f>SUM(C14:C16)</f>
@@ -4925,8 +4950,8 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B18" s="46" t="s">
-        <v>509</v>
+      <c r="B18" s="44" t="s">
+        <v>508</v>
       </c>
       <c r="C18">
         <f>C7+C12+C17</f>
@@ -4944,13 +4969,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306E606D-CC25-7440-B1DE-7CB61853CD87}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
@@ -4973,71 +5004,71 @@
       <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28">
+      <c r="C3" s="49"/>
+      <c r="D3" s="47">
         <v>2000</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="47">
         <v>2001</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="47">
         <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="46">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="46">
         <v>2</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="46">
         <v>4</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="46">
         <v>5</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="93" t="s">
         <v>479</v>
       </c>
       <c r="D6" s="26">
@@ -5051,51 +5082,53 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="46">
         <v>2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="46">
         <v>1</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="96" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="46">
         <v>4</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="E8" s="96" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="93" t="s">
         <v>479</v>
       </c>
       <c r="D9" s="26">
@@ -5109,51 +5142,53 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="46">
         <v>2</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="46">
         <v>1</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="46">
         <v>1</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="46">
         <v>1</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="96" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="93" t="s">
         <v>479</v>
       </c>
       <c r="D12" s="26">
@@ -5167,9 +5202,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>480</v>
-      </c>
+      <c r="A13" s="95" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5238,23 +5276,23 @@
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="89" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -5275,44 +5313,44 @@
       <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="61"/>
-      <c r="W5" s="59" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="92"/>
+      <c r="W5" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="61"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="92"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -27322,23 +27360,23 @@
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="89" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -27359,44 +27397,44 @@
       <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="90" t="s">
         <v>424</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="61"/>
-      <c r="X5" s="59" t="s">
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="92"/>
+      <c r="X5" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="61"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="92"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -63032,324 +63070,324 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="49" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="53">
         <v>2000</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="53">
         <v>2001</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="51">
         <v>2</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="53">
         <v>2002</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="53">
         <v>2000</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="53">
         <v>2001</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="53">
         <v>2002</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="51">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="53">
         <v>2000</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="53">
         <v>2001</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="53">
         <v>2002</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="53">
         <v>2000</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="53">
         <v>2001</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="52" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="53">
         <v>2002</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="51">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="53">
         <v>2000</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="51">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="53">
         <v>2001</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="53">
         <v>2002</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="53">
         <v>2000</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="53">
         <v>2001</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="53">
         <v>2002</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63368,7 +63406,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -63645,149 +63683,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC040D2-B513-B146-ACC0-ADD2A84A36E9}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.1640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="81"/>
+    <col min="1" max="1" width="8.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.1640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="71" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="72"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="63">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="47">
         <v>2000</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="47">
         <v>2001</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="47">
         <v>2002</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="47">
         <v>2000</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="47">
         <v>2001</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="47">
         <v>2002</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="67">
         <v>4</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="67">
         <v>5</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="67">
         <v>6</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="67">
         <v>1</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="67">
         <v>2</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="67">
         <v>4</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="67" t="s">
         <v>466</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="67">
         <v>8</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="67">
         <v>2</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="67">
         <v>1</v>
       </c>
-      <c r="H6" s="88"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="67">
         <v>1</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="67">
         <v>1</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67">
         <v>2</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="67">
         <v>1</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="67">
         <v>3</v>
       </c>
     </row>
@@ -63839,16 +63877,16 @@
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -63956,22 +63994,22 @@
       <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="51">
+      <c r="C3" s="82">
         <v>2000</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="51">
+      <c r="D3" s="84"/>
+      <c r="E3" s="82">
         <v>2001</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51">
+      <c r="F3" s="84"/>
+      <c r="G3" s="82">
         <v>2002</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>249</v>
@@ -64097,168 +64135,168 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="81"/>
+    <col min="1" max="1" width="8.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="59" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="71">
+      <c r="C3" s="76">
         <v>2000</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="71">
+      <c r="D3" s="78"/>
+      <c r="E3" s="76">
         <v>2001</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="71">
+      <c r="F3" s="78"/>
+      <c r="G3" s="76">
         <v>2002</v>
       </c>
-      <c r="H3" s="72"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="50" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="67">
         <v>4</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="67">
         <v>1</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="67">
         <v>5</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="67">
         <v>2</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="67">
         <v>6</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="67">
         <v>4</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="67">
         <v>2</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="67" t="s">
         <v>466</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="67">
         <v>1</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="67">
         <v>8</v>
       </c>
-      <c r="H6" s="88"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="67">
         <v>1</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="67">
         <v>2</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="67">
         <v>1</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="67">
         <v>1</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="73" t="s">
-        <v>482</v>
-      </c>
-      <c r="C8" s="74">
+      <c r="B8" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" s="56">
         <f>SUM(C5:C7)</f>
         <v>9</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="56">
         <f t="shared" ref="D8:H8" si="0">SUM(D5:D7)</f>
         <v>5</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -64298,31 +64336,31 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="79" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="48" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>475</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -64357,19 +64395,19 @@
       <c r="C5" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>1</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>2</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="36">
         <v>2</v>
       </c>
     </row>
@@ -64381,19 +64419,19 @@
       <c r="C6" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>3</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>4</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="36">
         <v>1</v>
       </c>
     </row>
@@ -64407,19 +64445,19 @@
       <c r="C7" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>2</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -64431,19 +64469,19 @@
       <c r="C8" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>4</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>466</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>1</v>
       </c>
     </row>
@@ -64457,17 +64495,17 @@
       <c r="C9" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>2</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="36">
         <v>3</v>
       </c>
     </row>
@@ -64479,36 +64517,36 @@
       <c r="C10" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>6</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>8</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+        <v>501</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Datasets/homicide_report_total_and_sex.xlsx
+++ b/Datasets/homicide_report_total_and_sex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroszekely/Documents/GitHub/t2wml/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F988301-5408-334C-8EE7-0BD15E6D463A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB0BDE5-8E7E-2743-8990-2AE5805E6F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30140" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1585,10 +1585,10 @@
     <t>total</t>
   </si>
   <si>
-    <t>------</t>
+    <t>This file has totals by country</t>
   </si>
   <si>
-    <t>This file has totals by country</t>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -2041,6 +2041,10 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,10 +2105,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2691,28 +2691,28 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="79" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="79" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
@@ -2921,34 +2921,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="81"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="79" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="79" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
@@ -3108,28 +3108,28 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
@@ -3275,12 +3275,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -3325,12 +3325,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
       <c r="E8">
         <f>B8</f>
         <v>0</v>
@@ -3377,12 +3377,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3470,15 +3470,15 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="90" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -3492,7 +3492,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="27" t="s">
         <v>275</v>
       </c>
@@ -3504,7 +3504,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="88"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="27" t="s">
         <v>275</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="90" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="27" t="s">
         <v>251</v>
       </c>
@@ -3542,7 +3542,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="88"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="27" t="s">
         <v>251</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="90" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -3566,7 +3566,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="27" t="s">
         <v>251</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="27" t="s">
         <v>251</v>
       </c>
@@ -3590,15 +3590,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="90" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -3612,7 +3612,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="87"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="27" t="s">
         <v>275</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="27" t="s">
         <v>275</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="90" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="87"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="27" t="s">
         <v>251</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="88"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="27" t="s">
         <v>251</v>
       </c>
@@ -3672,7 +3672,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="90" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="87"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="27" t="s">
         <v>251</v>
       </c>
@@ -3698,7 +3698,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="88"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="27" t="s">
         <v>251</v>
       </c>
@@ -3755,12 +3755,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="79">
+      <c r="A4" s="83">
         <v>2000</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -3805,12 +3805,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="79">
+      <c r="A8" s="83">
         <v>2001</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
       <c r="F8" t="s">
         <v>502</v>
       </c>
@@ -3870,12 +3870,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="79">
+      <c r="A12" s="83">
         <v>2002</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
@@ -4154,12 +4154,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="73">
+      <c r="A4" s="77">
         <v>2000</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
@@ -4240,12 +4240,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="73">
+      <c r="A11" s="77">
         <v>2001</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
@@ -4326,12 +4326,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="73">
+      <c r="A18" s="77">
         <v>2002</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
@@ -4972,7 +4972,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5068,7 +5068,7 @@
       <c r="B6" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="73" t="s">
         <v>479</v>
       </c>
       <c r="D6" s="26">
@@ -5097,8 +5097,8 @@
       <c r="E7" s="46">
         <v>1</v>
       </c>
-      <c r="F7" s="96" t="s">
-        <v>509</v>
+      <c r="F7" s="76" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5114,8 +5114,8 @@
       <c r="D8" s="46">
         <v>4</v>
       </c>
-      <c r="E8" s="96" t="s">
-        <v>509</v>
+      <c r="E8" s="76" t="s">
+        <v>510</v>
       </c>
       <c r="F8" s="46">
         <v>8</v>
@@ -5128,7 +5128,7 @@
       <c r="B9" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="73" t="s">
         <v>479</v>
       </c>
       <c r="D9" s="26">
@@ -5177,8 +5177,8 @@
       <c r="E11" s="46">
         <v>1</v>
       </c>
-      <c r="F11" s="96" t="s">
-        <v>509</v>
+      <c r="F11" s="76" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5188,7 +5188,7 @@
       <c r="B12" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="73" t="s">
         <v>479</v>
       </c>
       <c r="D12" s="26">
@@ -5202,12 +5202,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
-        <v>510</v>
+      <c r="A13" s="75" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="94"/>
+      <c r="B16" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5276,23 +5276,23 @@
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="93" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -5313,44 +5313,44 @@
       <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="94" t="s">
         <v>422</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="92"/>
-      <c r="W5" s="90" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="96"/>
+      <c r="W5" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="91"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="91"/>
-      <c r="AJ5" s="91"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="91"/>
-      <c r="AM5" s="92"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="96"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -27360,23 +27360,23 @@
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="93" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -27397,44 +27397,44 @@
       <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="94" t="s">
         <v>424</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="92"/>
-      <c r="X5" s="90" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="96"/>
+      <c r="X5" s="94" t="s">
         <v>425</v>
       </c>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="91"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="91"/>
-      <c r="AJ5" s="91"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="91"/>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="92"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="96"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -63722,16 +63722,16 @@
       <c r="B3" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
@@ -63877,16 +63877,16 @@
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -63994,18 +63994,18 @@
       <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="82">
+      <c r="C3" s="86">
         <v>2000</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="82">
+      <c r="D3" s="88"/>
+      <c r="E3" s="86">
         <v>2001</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="82">
+      <c r="F3" s="88"/>
+      <c r="G3" s="86">
         <v>2002</v>
       </c>
-      <c r="H3" s="84"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
@@ -64159,18 +64159,18 @@
       <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="76">
+      <c r="C3" s="80">
         <v>2000</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="76">
+      <c r="D3" s="82"/>
+      <c r="E3" s="80">
         <v>2001</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="76">
+      <c r="F3" s="82"/>
+      <c r="G3" s="80">
         <v>2002</v>
       </c>
-      <c r="H3" s="78"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -64336,28 +64336,28 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="83" t="s">
         <v>482</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="81"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">

--- a/Datasets/homicide_report_total_and_sex.xlsx
+++ b/Datasets/homicide_report_total_and_sex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroszekely/Documents/GitHub/t2wml/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB0BDE5-8E7E-2743-8990-2AE5805E6F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D6477-195A-BF4C-9FB2-5AC9D328C4E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30140" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="512">
   <si>
     <t>UNODC Name</t>
   </si>
@@ -1590,6 +1590,9 @@
   <si>
     <t>n/a</t>
   </si>
+  <si>
+    <t>Highlights by Pedro</t>
+  </si>
 </sst>
 </file>
 
@@ -1949,7 +1952,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2105,6 +2108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4969,10 +4973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306E606D-CC25-7440-B1DE-7CB61853CD87}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4996,49 +5000,37 @@
       <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B4" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="47">
+      <c r="C4" s="49"/>
+      <c r="D4" s="47">
         <v>2000</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E4" s="47">
         <v>2001</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F4" s="47">
         <v>2002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="46">
-        <v>1</v>
-      </c>
-      <c r="E4" s="46">
-        <v>2</v>
-      </c>
-      <c r="F4" s="46">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5049,16 +5041,16 @@
         <v>275</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="46">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5068,37 +5060,37 @@
       <c r="B6" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>479</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="46">
+        <v>4</v>
+      </c>
+      <c r="E6" s="46">
         <v>5</v>
       </c>
-      <c r="E6" s="26">
-        <v>7</v>
-      </c>
-      <c r="F6" s="26">
-        <v>8</v>
+      <c r="F6" s="46">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="46">
-        <v>2</v>
-      </c>
-      <c r="E7" s="46">
-        <v>1</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>510</v>
+        <v>275</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26">
+        <v>7</v>
+      </c>
+      <c r="F7" s="26">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5109,16 +5101,16 @@
         <v>251</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="46">
-        <v>4</v>
-      </c>
-      <c r="E8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46">
+        <v>1</v>
+      </c>
+      <c r="F8" s="76" t="s">
         <v>510</v>
-      </c>
-      <c r="F8" s="46">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5128,37 +5120,37 @@
       <c r="B9" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="73" t="s">
-        <v>479</v>
-      </c>
-      <c r="D9" s="26">
-        <v>6</v>
-      </c>
-      <c r="E9" s="26">
-        <v>1</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="C9" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="46">
+        <v>4</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="46">
-        <v>2</v>
-      </c>
-      <c r="E10" s="46">
+      <c r="C10" s="73" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="26">
+        <v>6</v>
+      </c>
+      <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="46">
-        <v>3</v>
+      <c r="F10" s="26">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5169,16 +5161,16 @@
         <v>251</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="46">
         <v>1</v>
       </c>
-      <c r="F11" s="76" t="s">
-        <v>510</v>
+      <c r="F11" s="46">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -5188,26 +5180,51 @@
       <c r="B12" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="46">
+        <v>1</v>
+      </c>
+      <c r="E12" s="46">
+        <v>1</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="73" t="s">
         <v>479</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D13" s="26">
         <v>3</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E13" s="26">
         <v>2</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F13" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="75" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="74"/>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datasets/homicide_report_total_and_sex.xlsx
+++ b/Datasets/homicide_report_total_and_sex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroszekely/Documents/GitHub/t2wml/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\isi\T2WML\t2wml\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D6477-195A-BF4C-9FB2-5AC9D328C4E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3117D1D-F5F7-4FEB-AD0B-18BA0A5C236A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30140" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table-1a" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="512">
   <si>
     <t>UNODC Name</t>
   </si>
@@ -2048,6 +2048,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="16" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2108,7 +2109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2395,20 +2395,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C341235-EDCA-764F-86D1-16D0516EE85B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="25"/>
+    <col min="3" max="3" width="8.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>482</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>33</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>47</v>
       </c>
@@ -2496,12 +2496,14 @@
       <c r="E6" s="46">
         <v>1</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="46">
+        <v>3</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>47</v>
       </c>
@@ -2514,8 +2516,8 @@
       <c r="D7" s="46">
         <v>4</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>466</v>
+      <c r="E7" s="46">
+        <v>4</v>
       </c>
       <c r="F7" s="46">
         <v>8</v>
@@ -2524,7 +2526,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>58</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>58</v>
       </c>
@@ -2562,17 +2564,17 @@
       </c>
       <c r="F9" s="46"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>472</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>471</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>471</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>500</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>500</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>500</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>496</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>496</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>474</v>
       </c>
@@ -2678,13 +2680,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -2694,31 +2696,31 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="83" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="85"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>475</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="27" t="s">
         <v>275</v>
@@ -2794,7 +2796,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="27" t="s">
         <v>275</v>
@@ -2844,7 +2846,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
         <v>275</v>
@@ -2890,7 +2892,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>483</v>
       </c>
@@ -2914,9 +2916,9 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -2924,37 +2926,37 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="83" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="83" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="83" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="85"/>
+      <c r="J4" s="86"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
@@ -3097,13 +3099,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3111,31 +3113,31 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="89" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="89"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="90"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>493</v>
       </c>
@@ -3254,9 +3256,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>475</v>
       </c>
@@ -3278,15 +3280,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -3300,7 +3302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2001</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2002</v>
       </c>
@@ -3328,19 +3330,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8">
         <f>B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2000</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2001</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2002</v>
       </c>
@@ -3380,15 +3382,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2000</v>
       </c>
@@ -3402,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2001</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2002</v>
       </c>
@@ -3446,12 +3448,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>482</v>
       </c>
@@ -3473,16 +3475,16 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -3495,8 +3497,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="92"/>
       <c r="B6" s="27" t="s">
         <v>275</v>
       </c>
@@ -3507,8 +3509,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="92"/>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="93"/>
       <c r="B7" s="27" t="s">
         <v>275</v>
       </c>
@@ -3519,8 +3521,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="91" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -3533,8 +3535,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="92"/>
       <c r="B9" s="27" t="s">
         <v>251</v>
       </c>
@@ -3545,8 +3547,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="93"/>
       <c r="B10" s="27" t="s">
         <v>251</v>
       </c>
@@ -3555,8 +3557,8 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="90" t="s">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="91" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -3569,8 +3571,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
       <c r="B12" s="27" t="s">
         <v>251</v>
       </c>
@@ -3581,8 +3583,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="93"/>
       <c r="B13" s="27" t="s">
         <v>251</v>
       </c>
@@ -3593,16 +3595,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -3615,8 +3617,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="91"/>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="92"/>
       <c r="B16" s="27" t="s">
         <v>275</v>
       </c>
@@ -3627,8 +3629,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="92"/>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="93"/>
       <c r="B17" s="27" t="s">
         <v>275</v>
       </c>
@@ -3639,8 +3641,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="91" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -3653,8 +3655,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="91"/>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="92"/>
       <c r="B19" s="27" t="s">
         <v>251</v>
       </c>
@@ -3663,8 +3665,8 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="92"/>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="93"/>
       <c r="B20" s="27" t="s">
         <v>251</v>
       </c>
@@ -3675,8 +3677,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="91" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -3689,8 +3691,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="92"/>
       <c r="B22" s="27" t="s">
         <v>251</v>
       </c>
@@ -3701,8 +3703,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="92"/>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="93"/>
       <c r="B23" s="27" t="s">
         <v>251</v>
       </c>
@@ -3734,9 +3736,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>482</v>
       </c>
@@ -3758,15 +3760,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="83">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="84">
         <v>2000</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>33</v>
       </c>
@@ -3780,7 +3782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>47</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>58</v>
       </c>
@@ -3808,18 +3810,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="83">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="84">
         <v>2001</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="F8" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>58</v>
       </c>
@@ -3873,15 +3875,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="83">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="84">
         <v>2002</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>33</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>47</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>58</v>
       </c>
@@ -3937,9 +3939,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -3947,7 +3949,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>482</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40">
@@ -3971,7 +3973,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>33</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>47</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>58</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40">
@@ -4023,7 +4025,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>47</v>
       </c>
@@ -4051,7 +4053,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>58</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40">
@@ -4075,7 +4077,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
@@ -4089,7 +4091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>58</v>
       </c>
@@ -4126,16 +4128,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="60"/>
+    <col min="5" max="16384" width="10.77734375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
@@ -4143,7 +4145,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>482</v>
       </c>
@@ -4157,15 +4159,15 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="77">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="78">
         <v>2000</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>33</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="62" t="s">
         <v>275</v>
@@ -4191,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>47</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="62" t="s">
         <v>251</v>
@@ -4217,7 +4219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>58</v>
       </c>
@@ -4231,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="62" t="s">
         <v>251</v>
@@ -4243,15 +4245,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="77">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="78">
         <v>2001</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>33</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="62" t="s">
         <v>275</v>
@@ -4277,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>47</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="62" t="s">
         <v>251</v>
@@ -4303,7 +4305,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>58</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="62" t="s">
         <v>251</v>
@@ -4329,15 +4331,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="77">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="78">
         <v>2002</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>33</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="62" t="s">
         <v>275</v>
@@ -4363,7 +4365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>47</v>
       </c>
@@ -4375,7 +4377,7 @@
       </c>
       <c r="D21" s="64"/>
     </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="62" t="s">
         <v>251</v>
@@ -4387,7 +4389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>58</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="62" t="s">
         <v>251</v>
@@ -4429,9 +4431,9 @@
       <selection activeCell="E19" sqref="E19:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>475</v>
       </c>
@@ -4456,14 +4458,14 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="34"/>
       <c r="C6" s="27" t="s">
@@ -4493,7 +4495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="34" t="s">
         <v>47</v>
@@ -4508,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="34"/>
       <c r="C8" s="27" t="s">
@@ -4521,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="34" t="s">
         <v>58</v>
@@ -4536,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="34"/>
       <c r="C10" s="27" t="s">
@@ -4549,14 +4551,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2001</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="34"/>
       <c r="C13" s="27" t="s">
@@ -4586,7 +4588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="34" t="s">
         <v>47</v>
@@ -4601,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="34"/>
       <c r="C15" s="27" t="s">
@@ -4614,7 +4616,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="34" t="s">
         <v>58</v>
@@ -4629,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="34"/>
       <c r="C17" s="27" t="s">
@@ -4642,14 +4644,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="34"/>
       <c r="C20" s="27" t="s">
@@ -4679,7 +4681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="34" t="s">
         <v>47</v>
@@ -4692,7 +4694,7 @@
       </c>
       <c r="E21" s="51"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="34"/>
       <c r="C22" s="27" t="s">
@@ -4705,7 +4707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="34" t="s">
         <v>58</v>
@@ -4720,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="34"/>
       <c r="C24" s="27" t="s">
@@ -4744,9 +4746,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>482</v>
       </c>
@@ -4760,7 +4762,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40">
@@ -4770,7 +4772,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>47</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>58</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
         <v>507</v>
@@ -4826,7 +4828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40">
@@ -4836,7 +4838,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>33</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>58</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
         <v>507</v>
@@ -4892,7 +4894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40">
@@ -4902,7 +4904,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>58</v>
       </c>
@@ -4940,7 +4942,7 @@
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
         <v>507</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>508</v>
       </c>
@@ -4975,19 +4977,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306E606D-CC25-7440-B1DE-7CB61853CD87}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -4999,7 +5001,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="25"/>
@@ -5007,7 +5009,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -5015,7 +5017,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>33</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>33</v>
       </c>
@@ -5093,7 +5095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>47</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>47</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>58</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>58</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>58</v>
       </c>
@@ -5213,17 +5215,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="77" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="74"/>
     </row>
   </sheetData>
@@ -5239,17 +5241,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="1.83203125" customWidth="1"/>
+    <col min="5" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -5271,7 +5273,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:39" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -5289,29 +5291,29 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-    </row>
-    <row r="4" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+    </row>
+    <row r="4" spans="1:39" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -5329,47 +5331,47 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="E5" s="94" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="E5" s="95" t="s">
         <v>422</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="96"/>
-      <c r="W5" s="94" t="s">
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="97"/>
+      <c r="W5" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="96"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="97"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -5486,7 +5488,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>224</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>6.0205219968920449</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>224</v>
       </c>
@@ -5636,7 +5638,7 @@
       </c>
       <c r="AM8" s="5"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>224</v>
       </c>
@@ -5701,7 +5703,7 @@
       </c>
       <c r="AM9" s="5"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>224</v>
       </c>
@@ -5766,7 +5768,7 @@
       </c>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>224</v>
       </c>
@@ -5831,7 +5833,7 @@
       </c>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>224</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>4.8734358400374767</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>224</v>
       </c>
@@ -5997,7 +5999,7 @@
       </c>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>224</v>
       </c>
@@ -6098,7 +6100,7 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>224</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>1.8219449626865669</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>224</v>
       </c>
@@ -6268,7 +6270,7 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>224</v>
       </c>
@@ -6361,7 +6363,7 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>224</v>
       </c>
@@ -6434,7 +6436,7 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>224</v>
       </c>
@@ -6515,7 +6517,7 @@
       </c>
       <c r="AM19" s="5"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>224</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>12.736879422085325</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>224</v>
       </c>
@@ -6677,7 +6679,7 @@
       </c>
       <c r="AM21" s="5"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>224</v>
       </c>
@@ -6730,7 +6732,7 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>224</v>
       </c>
@@ -6827,7 +6829,7 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>224</v>
       </c>
@@ -6908,7 +6910,7 @@
       </c>
       <c r="AM24" s="5"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>224</v>
       </c>
@@ -6993,7 +6995,7 @@
       </c>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>224</v>
       </c>
@@ -7074,7 +7076,7 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>224</v>
       </c>
@@ -7131,7 +7133,7 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>224</v>
       </c>
@@ -7216,7 +7218,7 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>224</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>19.75737596079167</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>224</v>
       </c>
@@ -7334,7 +7336,7 @@
       </c>
       <c r="AM30" s="5"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>224</v>
       </c>
@@ -7399,7 +7401,7 @@
       </c>
       <c r="AM31" s="5"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>224</v>
       </c>
@@ -7464,7 +7466,7 @@
       </c>
       <c r="AM32" s="5"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>224</v>
       </c>
@@ -7529,7 +7531,7 @@
       </c>
       <c r="AM33" s="5"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>224</v>
       </c>
@@ -7594,7 +7596,7 @@
       </c>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>224</v>
       </c>
@@ -7667,7 +7669,7 @@
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>224</v>
       </c>
@@ -7768,7 +7770,7 @@
       </c>
       <c r="AM36" s="5"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>224</v>
       </c>
@@ -7857,7 +7859,7 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>224</v>
       </c>
@@ -7922,7 +7924,7 @@
       </c>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>224</v>
       </c>
@@ -8035,7 +8037,7 @@
       </c>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>224</v>
       </c>
@@ -8092,7 +8094,7 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>224</v>
       </c>
@@ -8173,7 +8175,7 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>224</v>
       </c>
@@ -8262,7 +8264,7 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>224</v>
       </c>
@@ -8343,7 +8345,7 @@
       </c>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>224</v>
       </c>
@@ -8428,7 +8430,7 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>224</v>
       </c>
@@ -8545,7 +8547,7 @@
         <v>33.970957025492424</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>224</v>
       </c>
@@ -8634,7 +8636,7 @@
       <c r="AL46" s="5"/>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>224</v>
       </c>
@@ -8699,7 +8701,7 @@
       </c>
       <c r="AM47" s="5"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>224</v>
       </c>
@@ -8804,7 +8806,7 @@
       </c>
       <c r="AM48" s="5"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>224</v>
       </c>
@@ -8909,7 +8911,7 @@
         <v>11.485829080488983</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>224</v>
       </c>
@@ -8974,7 +8976,7 @@
       </c>
       <c r="AM50" s="5"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>224</v>
       </c>
@@ -9039,7 +9041,7 @@
       </c>
       <c r="AM51" s="5"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>224</v>
       </c>
@@ -9132,7 +9134,7 @@
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>224</v>
       </c>
@@ -9197,7 +9199,7 @@
       </c>
       <c r="AM53" s="5"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>224</v>
       </c>
@@ -9262,7 +9264,7 @@
       </c>
       <c r="AM54" s="5"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>224</v>
       </c>
@@ -9335,7 +9337,7 @@
       <c r="AL55" s="5"/>
       <c r="AM55" s="5"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>224</v>
       </c>
@@ -9400,7 +9402,7 @@
       </c>
       <c r="AM56" s="5"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>224</v>
       </c>
@@ -9465,7 +9467,7 @@
       </c>
       <c r="AM57" s="5"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>224</v>
       </c>
@@ -9522,7 +9524,7 @@
       <c r="AL58" s="5"/>
       <c r="AM58" s="5"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>224</v>
       </c>
@@ -9587,7 +9589,7 @@
       </c>
       <c r="AM59" s="5"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>224</v>
       </c>
@@ -9676,7 +9678,7 @@
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>224</v>
       </c>
@@ -9741,7 +9743,7 @@
       </c>
       <c r="AM61" s="5"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>224</v>
       </c>
@@ -9830,7 +9832,7 @@
       </c>
       <c r="AM62" s="5"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>224</v>
       </c>
@@ -9895,7 +9897,7 @@
       </c>
       <c r="AM63" s="5"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>229</v>
       </c>
@@ -10004,7 +10006,7 @@
       <c r="AL64" s="5"/>
       <c r="AM64" s="5"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>229</v>
       </c>
@@ -10101,7 +10103,7 @@
       <c r="AL65" s="5"/>
       <c r="AM65" s="5"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>229</v>
       </c>
@@ -10206,7 +10208,7 @@
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>229</v>
       </c>
@@ -10323,7 +10325,7 @@
         <v>28.400557367334855</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>229</v>
       </c>
@@ -10436,7 +10438,7 @@
       </c>
       <c r="AM68" s="5"/>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>229</v>
       </c>
@@ -10505,7 +10507,7 @@
       <c r="AL69" s="5"/>
       <c r="AM69" s="5"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>229</v>
       </c>
@@ -10606,7 +10608,7 @@
       <c r="AL70" s="5"/>
       <c r="AM70" s="5"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>229</v>
       </c>
@@ -10723,7 +10725,7 @@
         <v>4.9876864311298608</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>229</v>
       </c>
@@ -10800,7 +10802,7 @@
       <c r="AL72" s="5"/>
       <c r="AM72" s="5"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>229</v>
       </c>
@@ -10897,7 +10899,7 @@
       <c r="AL73" s="5"/>
       <c r="AM73" s="5"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>229</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>15.181704903205922</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>229</v>
       </c>
@@ -11127,7 +11129,7 @@
         <v>10.249319352019393</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>229</v>
       </c>
@@ -11200,7 +11202,7 @@
       <c r="AL76" s="5"/>
       <c r="AM76" s="5"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>229</v>
       </c>
@@ -11273,7 +11275,7 @@
       <c r="AL77" s="5"/>
       <c r="AM77" s="5"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>229</v>
       </c>
@@ -11390,7 +11392,7 @@
         <v>47.011058431412501</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>229</v>
       </c>
@@ -11463,7 +11465,7 @@
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>229</v>
       </c>
@@ -11548,7 +11550,7 @@
       <c r="AL80" s="5"/>
       <c r="AM80" s="5"/>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>229</v>
       </c>
@@ -11665,7 +11667,7 @@
         <v>18.505871376072065</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>229</v>
       </c>
@@ -11766,7 +11768,7 @@
       <c r="AL82" s="5"/>
       <c r="AM82" s="5"/>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>229</v>
       </c>
@@ -11875,7 +11877,7 @@
       <c r="AL83" s="5"/>
       <c r="AM83" s="5"/>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>229</v>
       </c>
@@ -11980,7 +11982,7 @@
         <v>36.4561687483139</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>229</v>
       </c>
@@ -12093,7 +12095,7 @@
       </c>
       <c r="AM85" s="5"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>229</v>
       </c>
@@ -12182,7 +12184,7 @@
       <c r="AL86" s="5"/>
       <c r="AM86" s="5"/>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>229</v>
       </c>
@@ -12283,7 +12285,7 @@
       <c r="AL87" s="5"/>
       <c r="AM87" s="5"/>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>229</v>
       </c>
@@ -12400,7 +12402,7 @@
         <v>37.599167805085912</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>229</v>
       </c>
@@ -12517,7 +12519,7 @@
         <v>11.904981604537769</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>229</v>
       </c>
@@ -12634,7 +12636,7 @@
         <v>82.842257499895354</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>229</v>
       </c>
@@ -12751,7 +12753,7 @@
         <v>27.255019075076326</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>229</v>
       </c>
@@ -12868,7 +12870,7 @@
         <v>56.515703091121438</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>229</v>
       </c>
@@ -12985,7 +12987,7 @@
         <v>19.263960096300945</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>229</v>
       </c>
@@ -13102,7 +13104,7 @@
         <v>7.3671246372748209</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>229</v>
       </c>
@@ -13219,7 +13221,7 @@
         <v>9.6695905855675957</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>229</v>
       </c>
@@ -13336,7 +13338,7 @@
         <v>12.960124935604378</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>229</v>
       </c>
@@ -13453,7 +13455,7 @@
         <v>1.684104544800048</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>229</v>
       </c>
@@ -13570,7 +13572,7 @@
         <v>5.3137221560959018</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>229</v>
       </c>
@@ -13635,7 +13637,7 @@
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>229</v>
       </c>
@@ -13752,7 +13754,7 @@
         <v>5.3533250951132416</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>229</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>5.9425644507500062</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>229</v>
       </c>
@@ -13910,7 +13912,7 @@
         <v>6.300191217232209</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>229</v>
       </c>
@@ -14027,7 +14029,7 @@
         <v>29.527956498051683</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>229</v>
       </c>
@@ -14128,7 +14130,7 @@
         <v>3.4627828035167658</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>229</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>25.504326148187612</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>229</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>5.8537666821668379</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>229</v>
       </c>
@@ -14435,7 +14437,7 @@
       <c r="AL107" s="5"/>
       <c r="AM107" s="5"/>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>229</v>
       </c>
@@ -14552,7 +14554,7 @@
         <v>18.370776079904079</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>229</v>
       </c>
@@ -14665,7 +14667,7 @@
       </c>
       <c r="AM109" s="5"/>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>229</v>
       </c>
@@ -14738,7 +14740,7 @@
         <v>7.665964527280769</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>229</v>
       </c>
@@ -14823,7 +14825,7 @@
       <c r="AL111" s="5"/>
       <c r="AM111" s="5"/>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>229</v>
       </c>
@@ -14940,7 +14942,7 @@
         <v>7.6942704571488365</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>229</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>56.333319912791787</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>220</v>
       </c>
@@ -15150,7 +15152,7 @@
       </c>
       <c r="AM114" s="5"/>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>220</v>
       </c>
@@ -15267,7 +15269,7 @@
         <v>4.4853846010665341</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>220</v>
       </c>
@@ -15364,7 +15366,7 @@
       <c r="AL116" s="5"/>
       <c r="AM116" s="5"/>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>220</v>
       </c>
@@ -15441,7 +15443,7 @@
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>220</v>
       </c>
@@ -15526,7 +15528,7 @@
       <c r="AL118" s="5"/>
       <c r="AM118" s="5"/>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
         <v>220</v>
       </c>
@@ -15643,7 +15645,7 @@
         <v>0.61560071186748699</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>220</v>
       </c>
@@ -15760,7 +15762,7 @@
         <v>0.38324208293714546</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>220</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>0.16363034203977658</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>220</v>
       </c>
@@ -15962,7 +15964,7 @@
       </c>
       <c r="AM122" s="5"/>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>220</v>
       </c>
@@ -16027,7 +16029,7 @@
       </c>
       <c r="AM123" s="5"/>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>220</v>
       </c>
@@ -16144,7 +16146,7 @@
         <v>0.28352331066003161</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>220</v>
       </c>
@@ -16249,7 +16251,7 @@
         <v>5.6559215183007101</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>220</v>
       </c>
@@ -16322,7 +16324,7 @@
         <v>0.70111418427139105</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>220</v>
       </c>
@@ -16419,7 +16421,7 @@
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>220</v>
       </c>
@@ -16516,7 +16518,7 @@
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>220</v>
       </c>
@@ -16613,7 +16615,7 @@
         <v>0.49506792867666399</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>220</v>
       </c>
@@ -16678,7 +16680,7 @@
       </c>
       <c r="AM130" s="5"/>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>220</v>
       </c>
@@ -16783,7 +16785,7 @@
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>220</v>
       </c>
@@ -16900,7 +16902,7 @@
         <v>2.2653098527122006</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>220</v>
       </c>
@@ -17017,7 +17019,7 @@
         <v>11.019828237804118</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>220</v>
       </c>
@@ -17134,7 +17136,7 @@
         <v>0.32055793607419392</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>220</v>
       </c>
@@ -17251,7 +17253,7 @@
         <v>3.2394372444387032</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>220</v>
       </c>
@@ -17332,7 +17334,7 @@
       </c>
       <c r="AM136" s="5"/>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>220</v>
       </c>
@@ -17425,7 +17427,7 @@
       <c r="AL137" s="5"/>
       <c r="AM137" s="5"/>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>220</v>
       </c>
@@ -17490,7 +17492,7 @@
       <c r="AL138" s="5"/>
       <c r="AM138" s="5"/>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>220</v>
       </c>
@@ -17603,7 +17605,7 @@
       </c>
       <c r="AM139" s="5"/>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>220</v>
       </c>
@@ -17716,7 +17718,7 @@
         <v>1.1292913069664727</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>220</v>
       </c>
@@ -17833,7 +17835,7 @@
         <v>3.2236994089426676</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
         <v>220</v>
       </c>
@@ -17902,7 +17904,7 @@
       <c r="AL142" s="5"/>
       <c r="AM142" s="5"/>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>220</v>
       </c>
@@ -17991,7 +17993,7 @@
       <c r="AL143" s="5"/>
       <c r="AM143" s="5"/>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>220</v>
       </c>
@@ -18104,7 +18106,7 @@
         <v>2.1637791867412113</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>220</v>
       </c>
@@ -18221,7 +18223,7 @@
         <v>4.4083952655321568</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>220</v>
       </c>
@@ -18322,7 +18324,7 @@
         <v>2.5495429102503171</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>220</v>
       </c>
@@ -18439,7 +18441,7 @@
         <v>2.9781257689212657</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>220</v>
       </c>
@@ -18544,7 +18546,7 @@
         <v>2.1412517481827824</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>220</v>
       </c>
@@ -18649,7 +18651,7 @@
       <c r="AL149" s="5"/>
       <c r="AM149" s="5"/>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>220</v>
       </c>
@@ -18766,7 +18768,7 @@
         <v>1.1108676696833275</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>220</v>
       </c>
@@ -18867,7 +18869,7 @@
         <v>0.98961703952053404</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>220</v>
       </c>
@@ -18940,7 +18942,7 @@
       <c r="AL152" s="5"/>
       <c r="AM152" s="5"/>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>220</v>
       </c>
@@ -19017,7 +19019,7 @@
       <c r="AL153" s="5"/>
       <c r="AM153" s="5"/>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>220</v>
       </c>
@@ -19090,7 +19092,7 @@
       <c r="AL154" s="5"/>
       <c r="AM154" s="5"/>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>220</v>
       </c>
@@ -19199,7 +19201,7 @@
       </c>
       <c r="AM155" s="5"/>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>220</v>
       </c>
@@ -19296,7 +19298,7 @@
         <v>1.5476276980700889</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>220</v>
       </c>
@@ -19393,7 +19395,7 @@
       <c r="AL157" s="5"/>
       <c r="AM157" s="5"/>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>220</v>
       </c>
@@ -19478,7 +19480,7 @@
         <v>3.9931018231449427</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>220</v>
       </c>
@@ -19579,7 +19581,7 @@
       <c r="AL159" s="5"/>
       <c r="AM159" s="5"/>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>220</v>
       </c>
@@ -19680,7 +19682,7 @@
       <c r="AL160" s="5"/>
       <c r="AM160" s="5"/>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
         <v>220</v>
       </c>
@@ -19765,7 +19767,7 @@
       </c>
       <c r="AM161" s="5"/>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
         <v>220</v>
       </c>
@@ -19862,7 +19864,7 @@
         <v>0.68824077648909454</v>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
         <v>220</v>
       </c>
@@ -19955,7 +19957,7 @@
       <c r="AL163" s="5"/>
       <c r="AM163" s="5"/>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
         <v>220</v>
       </c>
@@ -20044,7 +20046,7 @@
       <c r="AL164" s="5"/>
       <c r="AM164" s="5"/>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
         <v>220</v>
       </c>
@@ -20137,7 +20139,7 @@
         <v>0.89381110545006814</v>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
         <v>220</v>
       </c>
@@ -20234,7 +20236,7 @@
       <c r="AL166" s="5"/>
       <c r="AM166" s="5"/>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>222</v>
       </c>
@@ -20343,7 +20345,7 @@
       <c r="AL167" s="5"/>
       <c r="AM167" s="5"/>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>222</v>
       </c>
@@ -20460,7 +20462,7 @@
         <v>1.1360420127971627</v>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
         <v>222</v>
       </c>
@@ -20577,7 +20579,7 @@
         <v>0.61264710222444818</v>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
         <v>222</v>
       </c>
@@ -20694,7 +20696,7 @@
         <v>2.0714993378893332</v>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>222</v>
       </c>
@@ -20811,7 +20813,7 @@
         <v>0.67014617029316781</v>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
         <v>222</v>
       </c>
@@ -20920,7 +20922,7 @@
       <c r="AL172" s="5"/>
       <c r="AM172" s="5"/>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>222</v>
       </c>
@@ -21037,7 +21039,7 @@
         <v>1.2488012519156713</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
         <v>222</v>
       </c>
@@ -21142,7 +21144,7 @@
         <v>10.816182395136124</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
         <v>222</v>
       </c>
@@ -21259,7 +21261,7 @@
         <v>1.0474598547228311</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>222</v>
       </c>
@@ -21360,7 +21362,7 @@
       <c r="AL176" s="5"/>
       <c r="AM176" s="5"/>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>222</v>
       </c>
@@ -21425,7 +21427,7 @@
       <c r="AL177" s="5"/>
       <c r="AM177" s="5"/>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>222</v>
       </c>
@@ -21542,7 +21544,7 @@
         <v>0.98068138232784841</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>222</v>
       </c>
@@ -21655,7 +21657,7 @@
       </c>
       <c r="AM179" s="5"/>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>222</v>
       </c>
@@ -21772,7 +21774,7 @@
         <v>1.4177693761814747</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>222</v>
       </c>
@@ -21889,7 +21891,7 @@
         <v>0.300447727203078</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>222</v>
       </c>
@@ -22006,7 +22008,7 @@
         <v>0.80207959821046737</v>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
         <v>222</v>
       </c>
@@ -22079,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
         <v>222</v>
       </c>
@@ -22192,7 +22194,7 @@
       </c>
       <c r="AM184" s="5"/>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
         <v>222</v>
       </c>
@@ -22309,7 +22311,7 @@
         <v>5.2468664376197998</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
         <v>222</v>
       </c>
@@ -22426,7 +22428,7 @@
         <v>0.51430522849552696</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
         <v>222</v>
       </c>
@@ -22543,7 +22545,7 @@
         <v>1.0777628684988174</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
         <v>222</v>
       </c>
@@ -22660,7 +22662,7 @@
         <v>1.2176200579893155</v>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
         <v>222</v>
       </c>
@@ -22777,7 +22779,7 @@
         <v>0.96639595209920837</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
         <v>222</v>
       </c>
@@ -22894,7 +22896,7 @@
         <v>1.1841257574932362</v>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
         <v>222</v>
       </c>
@@ -23011,7 +23013,7 @@
         <v>1.2024106683055042</v>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>222</v>
       </c>
@@ -23128,7 +23130,7 @@
         <v>2.6989264217312363</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>222</v>
       </c>
@@ -23217,7 +23219,7 @@
       </c>
       <c r="AM193" s="5"/>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
         <v>222</v>
       </c>
@@ -23330,7 +23332,7 @@
         <v>1.2753632191936157</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>222</v>
       </c>
@@ -23447,7 +23449,7 @@
         <v>1.0446344771732645</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
         <v>222</v>
       </c>
@@ -23504,7 +23506,7 @@
       <c r="AL196" s="5"/>
       <c r="AM196" s="5"/>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
         <v>222</v>
       </c>
@@ -23617,7 +23619,7 @@
         <v>0.75035133861517556</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>222</v>
       </c>
@@ -23694,7 +23696,7 @@
       </c>
       <c r="AM198" s="5"/>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
         <v>222</v>
       </c>
@@ -23811,7 +23813,7 @@
         <v>0.67306316281830014</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>222</v>
       </c>
@@ -23896,7 +23898,7 @@
         <v>1.5967404470873252</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>222</v>
       </c>
@@ -24009,7 +24011,7 @@
       </c>
       <c r="AM201" s="5"/>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
         <v>222</v>
       </c>
@@ -24118,7 +24120,7 @@
         <v>4.4556174355948457</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
         <v>222</v>
       </c>
@@ -24235,7 +24237,7 @@
         <v>0.63593284179193388</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
         <v>222</v>
       </c>
@@ -24332,7 +24334,7 @@
       <c r="AL204" s="5"/>
       <c r="AM204" s="5"/>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
         <v>222</v>
       </c>
@@ -24449,7 +24451,7 @@
         <v>1.3942721396132982</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
         <v>222</v>
       </c>
@@ -24566,7 +24568,7 @@
         <v>0.48163984109353059</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
         <v>222</v>
       </c>
@@ -24683,7 +24685,7 @@
         <v>0.63348451778921488</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
         <v>222</v>
       </c>
@@ -24792,7 +24794,7 @@
       <c r="AL208" s="5"/>
       <c r="AM208" s="5"/>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
         <v>222</v>
       </c>
@@ -24909,7 +24911,7 @@
         <v>0.65521964985797587</v>
       </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
         <v>222</v>
       </c>
@@ -25022,7 +25024,7 @@
       </c>
       <c r="AM210" s="5"/>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
         <v>222</v>
       </c>
@@ -25139,7 +25141,7 @@
         <v>1.3521868461983428</v>
       </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
         <v>222</v>
       </c>
@@ -25256,7 +25258,7 @@
         <v>1.1761928512473934</v>
       </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
         <v>222</v>
       </c>
@@ -25373,7 +25375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
         <v>222</v>
       </c>
@@ -25482,7 +25484,7 @@
       <c r="AL214" s="5"/>
       <c r="AM214" s="5"/>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
         <v>222</v>
       </c>
@@ -25579,7 +25581,7 @@
       </c>
       <c r="AM215" s="5"/>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
         <v>222</v>
       </c>
@@ -25696,7 +25698,7 @@
         <v>0.55336290410503453</v>
       </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
         <v>222</v>
       </c>
@@ -25813,7 +25815,7 @@
         <v>0.53635744213948755</v>
       </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
         <v>226</v>
       </c>
@@ -25930,7 +25932,7 @@
         <v>0.94115607781637645</v>
       </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>226</v>
       </c>
@@ -26039,7 +26041,7 @@
       <c r="AL219" s="5"/>
       <c r="AM219" s="5"/>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
         <v>226</v>
       </c>
@@ -26136,7 +26138,7 @@
       <c r="AL220" s="5"/>
       <c r="AM220" s="5"/>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
         <v>226</v>
       </c>
@@ -26201,7 +26203,7 @@
       <c r="AL221" s="5"/>
       <c r="AM221" s="5"/>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
         <v>226</v>
       </c>
@@ -26262,7 +26264,7 @@
       <c r="AL222" s="5"/>
       <c r="AM222" s="5"/>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
         <v>226</v>
       </c>
@@ -26331,7 +26333,7 @@
       <c r="AL223" s="5"/>
       <c r="AM223" s="5"/>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
         <v>226</v>
       </c>
@@ -26396,7 +26398,7 @@
       </c>
       <c r="AM224" s="5"/>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
         <v>226</v>
       </c>
@@ -26493,7 +26495,7 @@
       <c r="AL225" s="5"/>
       <c r="AM225" s="5"/>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
         <v>226</v>
       </c>
@@ -26570,7 +26572,7 @@
       <c r="AL226" s="5"/>
       <c r="AM226" s="5"/>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
         <v>226</v>
       </c>
@@ -26635,7 +26637,7 @@
       </c>
       <c r="AM227" s="5"/>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
         <v>226</v>
       </c>
@@ -26688,7 +26690,7 @@
       <c r="AL228" s="5"/>
       <c r="AM228" s="5"/>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
         <v>226</v>
       </c>
@@ -26741,7 +26743,7 @@
       <c r="AL229" s="5"/>
       <c r="AM229" s="5"/>
     </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
         <v>226</v>
       </c>
@@ -26854,7 +26856,7 @@
         <v>5.3971006775160388</v>
       </c>
     </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
         <v>226</v>
       </c>
@@ -26907,7 +26909,7 @@
       <c r="AL231" s="5"/>
       <c r="AM231" s="5"/>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
         <v>226</v>
       </c>
@@ -26972,7 +26974,7 @@
       <c r="AL232" s="5"/>
       <c r="AM232" s="5"/>
     </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>226</v>
       </c>
@@ -27025,7 +27027,7 @@
       <c r="AL233" s="5"/>
       <c r="AM233" s="5"/>
     </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>226</v>
       </c>
@@ -27086,7 +27088,7 @@
       <c r="AL234" s="5"/>
       <c r="AM234" s="5"/>
     </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>226</v>
       </c>
@@ -27187,7 +27189,7 @@
       <c r="AL235" s="5"/>
       <c r="AM235" s="5"/>
     </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
         <v>226</v>
       </c>
@@ -27280,32 +27282,32 @@
       <c r="AL236" s="5"/>
       <c r="AM236" s="5"/>
     </row>
-    <row r="238" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="23" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="239" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="24" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="240" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="24" t="s">
         <v>431</v>
       </c>
@@ -27328,18 +27330,18 @@
       <selection activeCell="S449" sqref="S449"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -27355,7 +27357,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:40" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -27373,29 +27375,29 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-    </row>
-    <row r="4" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+    </row>
+    <row r="4" spans="1:40" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -27413,47 +27415,47 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="F5" s="94" t="s">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="F5" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="96"/>
-      <c r="X5" s="94" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="97"/>
+      <c r="X5" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="97"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -27571,7 +27573,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>224</v>
       </c>
@@ -27639,7 +27641,7 @@
         <v>2.2944048311479288</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>224</v>
       </c>
@@ -27707,7 +27709,7 @@
         <v>9.8719962176716276</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
@@ -27763,7 +27765,7 @@
       </c>
       <c r="AN9" s="5"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>224</v>
       </c>
@@ -27819,7 +27821,7 @@
       </c>
       <c r="AN10" s="5"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>224</v>
       </c>
@@ -27875,7 +27877,7 @@
       </c>
       <c r="AN11" s="5"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>224</v>
       </c>
@@ -27931,7 +27933,7 @@
       </c>
       <c r="AN12" s="5"/>
     </row>
-    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -27987,7 +27989,7 @@
       </c>
       <c r="AN13" s="5"/>
     </row>
-    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>224</v>
       </c>
@@ -28043,7 +28045,7 @@
       </c>
       <c r="AN14" s="5"/>
     </row>
-    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>224</v>
       </c>
@@ -28099,7 +28101,7 @@
       </c>
       <c r="AN15" s="5"/>
     </row>
-    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>224</v>
       </c>
@@ -28155,7 +28157,7 @@
       </c>
       <c r="AN16" s="5"/>
     </row>
-    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -28219,7 +28221,7 @@
         <v>2.6191386889918165</v>
       </c>
     </row>
-    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -28283,7 +28285,7 @@
         <v>7.1548305923752125</v>
       </c>
     </row>
-    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>224</v>
       </c>
@@ -28339,7 +28341,7 @@
       </c>
       <c r="AN19" s="5"/>
     </row>
-    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -28395,7 +28397,7 @@
       </c>
       <c r="AN20" s="5"/>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
@@ -28451,7 +28453,7 @@
       <c r="AM21" s="5"/>
       <c r="AN21" s="5"/>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>224</v>
       </c>
@@ -28507,7 +28509,7 @@
       <c r="AM22" s="5"/>
       <c r="AN22" s="5"/>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>224</v>
       </c>
@@ -28619,7 +28621,7 @@
         <v>1.5695102900087678</v>
       </c>
     </row>
-    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>224</v>
       </c>
@@ -28731,7 +28733,7 @@
         <v>2.079179001046529</v>
       </c>
     </row>
-    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>224</v>
       </c>
@@ -28787,7 +28789,7 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
     </row>
-    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>224</v>
       </c>
@@ -28843,7 +28845,7 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
     </row>
-    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>224</v>
       </c>
@@ -28919,7 +28921,7 @@
       <c r="AM27" s="5"/>
       <c r="AN27" s="5"/>
     </row>
-    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>224</v>
       </c>
@@ -28995,7 +28997,7 @@
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
     </row>
-    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>224</v>
       </c>
@@ -29051,7 +29053,7 @@
       </c>
       <c r="AN29" s="5"/>
     </row>
-    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>224</v>
       </c>
@@ -29107,7 +29109,7 @@
       </c>
       <c r="AN30" s="5"/>
     </row>
-    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>224</v>
       </c>
@@ -29199,7 +29201,7 @@
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
     </row>
-    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>224</v>
       </c>
@@ -29291,7 +29293,7 @@
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
     </row>
-    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>224</v>
       </c>
@@ -29347,7 +29349,7 @@
       </c>
       <c r="AN33" s="5"/>
     </row>
-    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>224</v>
       </c>
@@ -29403,7 +29405,7 @@
       </c>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>224</v>
       </c>
@@ -29459,7 +29461,7 @@
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
     </row>
-    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>224</v>
       </c>
@@ -29515,7 +29517,7 @@
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
     </row>
-    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>224</v>
       </c>
@@ -29591,7 +29593,7 @@
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
     </row>
-    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>224</v>
       </c>
@@ -29667,7 +29669,7 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>224</v>
       </c>
@@ -29743,7 +29745,7 @@
       </c>
       <c r="AN39" s="5"/>
     </row>
-    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>224</v>
       </c>
@@ -29819,7 +29821,7 @@
       </c>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>224</v>
       </c>
@@ -29875,7 +29877,7 @@
       </c>
       <c r="AN41" s="5"/>
     </row>
-    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>224</v>
       </c>
@@ -29931,7 +29933,7 @@
       </c>
       <c r="AN42" s="5"/>
     </row>
-    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>224</v>
       </c>
@@ -29987,7 +29989,7 @@
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
     </row>
-    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>224</v>
       </c>
@@ -30043,7 +30045,7 @@
       <c r="AM44" s="5"/>
       <c r="AN44" s="5"/>
     </row>
-    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>224</v>
       </c>
@@ -30099,7 +30101,7 @@
       <c r="AM45" s="5"/>
       <c r="AN45" s="5"/>
     </row>
-    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>224</v>
       </c>
@@ -30155,7 +30157,7 @@
       <c r="AM46" s="5"/>
       <c r="AN46" s="5"/>
     </row>
-    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>224</v>
       </c>
@@ -30211,7 +30213,7 @@
       <c r="AM47" s="5"/>
       <c r="AN47" s="5"/>
     </row>
-    <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>224</v>
       </c>
@@ -30267,7 +30269,7 @@
       <c r="AM48" s="5"/>
       <c r="AN48" s="5"/>
     </row>
-    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>224</v>
       </c>
@@ -30323,7 +30325,7 @@
         <v>10.376566949815739</v>
       </c>
     </row>
-    <row r="50" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -30379,7 +30381,7 @@
         <v>29.395672418635055</v>
       </c>
     </row>
-    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>224</v>
       </c>
@@ -30435,7 +30437,7 @@
       </c>
       <c r="AN51" s="5"/>
     </row>
-    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>224</v>
       </c>
@@ -30491,7 +30493,7 @@
       </c>
       <c r="AN52" s="5"/>
     </row>
-    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>224</v>
       </c>
@@ -30547,7 +30549,7 @@
       </c>
       <c r="AN53" s="5"/>
     </row>
-    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>224</v>
       </c>
@@ -30603,7 +30605,7 @@
       </c>
       <c r="AN54" s="5"/>
     </row>
-    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>224</v>
       </c>
@@ -30659,7 +30661,7 @@
       </c>
       <c r="AN55" s="5"/>
     </row>
-    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>224</v>
       </c>
@@ -30715,7 +30717,7 @@
       </c>
       <c r="AN56" s="5"/>
     </row>
-    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
@@ -30771,7 +30773,7 @@
       </c>
       <c r="AN57" s="5"/>
     </row>
-    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>224</v>
       </c>
@@ -30827,7 +30829,7 @@
       </c>
       <c r="AN58" s="5"/>
     </row>
-    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>224</v>
       </c>
@@ -30883,7 +30885,7 @@
       </c>
       <c r="AN59" s="5"/>
     </row>
-    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>224</v>
       </c>
@@ -30939,7 +30941,7 @@
       </c>
       <c r="AN60" s="5"/>
     </row>
-    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>224</v>
       </c>
@@ -30995,7 +30997,7 @@
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
     </row>
-    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>224</v>
       </c>
@@ -31051,7 +31053,7 @@
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
     </row>
-    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>224</v>
       </c>
@@ -31111,7 +31113,7 @@
       </c>
       <c r="AN63" s="5"/>
     </row>
-    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>224</v>
       </c>
@@ -31171,7 +31173,7 @@
       </c>
       <c r="AN64" s="5"/>
     </row>
-    <row r="65" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>224</v>
       </c>
@@ -31259,7 +31261,7 @@
       <c r="AM65" s="5"/>
       <c r="AN65" s="5"/>
     </row>
-    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>224</v>
       </c>
@@ -31347,7 +31349,7 @@
       <c r="AM66" s="5"/>
       <c r="AN66" s="5"/>
     </row>
-    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>224</v>
       </c>
@@ -31403,7 +31405,7 @@
       </c>
       <c r="AN67" s="5"/>
     </row>
-    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>224</v>
       </c>
@@ -31459,7 +31461,7 @@
       </c>
       <c r="AN68" s="5"/>
     </row>
-    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>224</v>
       </c>
@@ -31527,7 +31529,7 @@
       </c>
       <c r="AN69" s="5"/>
     </row>
-    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>224</v>
       </c>
@@ -31595,7 +31597,7 @@
       </c>
       <c r="AN70" s="5"/>
     </row>
-    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>224</v>
       </c>
@@ -31651,7 +31653,7 @@
       <c r="AM71" s="5"/>
       <c r="AN71" s="5"/>
     </row>
-    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>224</v>
       </c>
@@ -31707,7 +31709,7 @@
       <c r="AM72" s="5"/>
       <c r="AN72" s="5"/>
     </row>
-    <row r="73" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>224</v>
       </c>
@@ -31763,7 +31765,7 @@
       <c r="AM73" s="5"/>
       <c r="AN73" s="5"/>
     </row>
-    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -31819,7 +31821,7 @@
       <c r="AM74" s="5"/>
       <c r="AN74" s="5"/>
     </row>
-    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -31875,7 +31877,7 @@
       <c r="AM75" s="5"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>224</v>
       </c>
@@ -31931,7 +31933,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="5"/>
     </row>
-    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>224</v>
       </c>
@@ -31987,7 +31989,7 @@
       </c>
       <c r="AN77" s="5"/>
     </row>
-    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>224</v>
       </c>
@@ -32043,7 +32045,7 @@
       </c>
       <c r="AN78" s="5"/>
     </row>
-    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>224</v>
       </c>
@@ -32099,7 +32101,7 @@
       <c r="AM79" s="5"/>
       <c r="AN79" s="5"/>
     </row>
-    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>224</v>
       </c>
@@ -32155,7 +32157,7 @@
       <c r="AM80" s="5"/>
       <c r="AN80" s="5"/>
     </row>
-    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>224</v>
       </c>
@@ -32231,7 +32233,7 @@
       <c r="AM81" s="5"/>
       <c r="AN81" s="5"/>
     </row>
-    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>224</v>
       </c>
@@ -32307,7 +32309,7 @@
       <c r="AM82" s="5"/>
       <c r="AN82" s="5"/>
     </row>
-    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>224</v>
       </c>
@@ -32363,7 +32365,7 @@
       <c r="AM83" s="5"/>
       <c r="AN83" s="5"/>
     </row>
-    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>224</v>
       </c>
@@ -32419,7 +32421,7 @@
       <c r="AM84" s="5"/>
       <c r="AN84" s="5"/>
     </row>
-    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>224</v>
       </c>
@@ -32475,7 +32477,7 @@
       </c>
       <c r="AN85" s="5"/>
     </row>
-    <row r="86" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>224</v>
       </c>
@@ -32531,7 +32533,7 @@
       </c>
       <c r="AN86" s="5"/>
     </row>
-    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>224</v>
       </c>
@@ -32587,7 +32589,7 @@
       </c>
       <c r="AN87" s="5"/>
     </row>
-    <row r="88" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>224</v>
       </c>
@@ -32643,7 +32645,7 @@
       </c>
       <c r="AN88" s="5"/>
     </row>
-    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
@@ -32715,7 +32717,7 @@
       </c>
       <c r="AN89" s="5"/>
     </row>
-    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>224</v>
       </c>
@@ -32787,7 +32789,7 @@
       </c>
       <c r="AN90" s="5"/>
     </row>
-    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -32843,7 +32845,7 @@
       </c>
       <c r="AN91" s="5"/>
     </row>
-    <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>224</v>
       </c>
@@ -32899,7 +32901,7 @@
       </c>
       <c r="AN92" s="5"/>
     </row>
-    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>224</v>
       </c>
@@ -32955,7 +32957,7 @@
       </c>
       <c r="AN93" s="5"/>
     </row>
-    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>224</v>
       </c>
@@ -33011,7 +33013,7 @@
       </c>
       <c r="AN94" s="5"/>
     </row>
-    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>224</v>
       </c>
@@ -33067,7 +33069,7 @@
       <c r="AM95" s="5"/>
       <c r="AN95" s="5"/>
     </row>
-    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
@@ -33123,7 +33125,7 @@
       <c r="AM96" s="5"/>
       <c r="AN96" s="5"/>
     </row>
-    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>224</v>
       </c>
@@ -33179,7 +33181,7 @@
       </c>
       <c r="AN97" s="5"/>
     </row>
-    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
@@ -33235,7 +33237,7 @@
       </c>
       <c r="AN98" s="5"/>
     </row>
-    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>224</v>
       </c>
@@ -33291,7 +33293,7 @@
       </c>
       <c r="AN99" s="5"/>
     </row>
-    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>224</v>
       </c>
@@ -33347,7 +33349,7 @@
       </c>
       <c r="AN100" s="5"/>
     </row>
-    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>224</v>
       </c>
@@ -33403,7 +33405,7 @@
       <c r="AM101" s="5"/>
       <c r="AN101" s="5"/>
     </row>
-    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -33459,7 +33461,7 @@
       <c r="AM102" s="5"/>
       <c r="AN102" s="5"/>
     </row>
-    <row r="103" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>224</v>
       </c>
@@ -33515,7 +33517,7 @@
       </c>
       <c r="AN103" s="5"/>
     </row>
-    <row r="104" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>224</v>
       </c>
@@ -33571,7 +33573,7 @@
       </c>
       <c r="AN104" s="5"/>
     </row>
-    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>224</v>
       </c>
@@ -33627,7 +33629,7 @@
       </c>
       <c r="AN105" s="5"/>
     </row>
-    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>224</v>
       </c>
@@ -33683,7 +33685,7 @@
       </c>
       <c r="AN106" s="5"/>
     </row>
-    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -33739,7 +33741,7 @@
       <c r="AM107" s="5"/>
       <c r="AN107" s="5"/>
     </row>
-    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
@@ -33795,7 +33797,7 @@
       <c r="AM108" s="5"/>
       <c r="AN108" s="5"/>
     </row>
-    <row r="109" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>224</v>
       </c>
@@ -33851,7 +33853,7 @@
       </c>
       <c r="AN109" s="5"/>
     </row>
-    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
@@ -33907,7 +33909,7 @@
       </c>
       <c r="AN110" s="5"/>
     </row>
-    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>224</v>
       </c>
@@ -33963,7 +33965,7 @@
       </c>
       <c r="AN111" s="5"/>
     </row>
-    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>224</v>
       </c>
@@ -34019,7 +34021,7 @@
       </c>
       <c r="AN112" s="5"/>
     </row>
-    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -34075,7 +34077,7 @@
       </c>
       <c r="AN113" s="5"/>
     </row>
-    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
@@ -34131,7 +34133,7 @@
       </c>
       <c r="AN114" s="5"/>
     </row>
-    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -34187,7 +34189,7 @@
       </c>
       <c r="AN115" s="5"/>
     </row>
-    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>224</v>
       </c>
@@ -34243,7 +34245,7 @@
       </c>
       <c r="AN116" s="5"/>
     </row>
-    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>229</v>
       </c>
@@ -34303,7 +34305,7 @@
       <c r="AM117" s="5"/>
       <c r="AN117" s="5"/>
     </row>
-    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>229</v>
       </c>
@@ -34363,7 +34365,7 @@
       <c r="AM118" s="5"/>
       <c r="AN118" s="5"/>
     </row>
-    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>229</v>
       </c>
@@ -34427,7 +34429,7 @@
       <c r="AM119" s="5"/>
       <c r="AN119" s="5"/>
     </row>
-    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>229</v>
       </c>
@@ -34491,7 +34493,7 @@
       <c r="AM120" s="5"/>
       <c r="AN120" s="5"/>
     </row>
-    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>229</v>
       </c>
@@ -34599,7 +34601,7 @@
       <c r="AM121" s="5"/>
       <c r="AN121" s="5"/>
     </row>
-    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>229</v>
       </c>
@@ -34707,7 +34709,7 @@
       <c r="AM122" s="5"/>
       <c r="AN122" s="5"/>
     </row>
-    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>229</v>
       </c>
@@ -34811,7 +34813,7 @@
       <c r="AM123" s="5"/>
       <c r="AN123" s="5"/>
     </row>
-    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>229</v>
       </c>
@@ -34915,7 +34917,7 @@
       <c r="AM124" s="5"/>
       <c r="AN124" s="5"/>
     </row>
-    <row r="125" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>229</v>
       </c>
@@ -35031,7 +35033,7 @@
       </c>
       <c r="AN125" s="5"/>
     </row>
-    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>229</v>
       </c>
@@ -35147,7 +35149,7 @@
       </c>
       <c r="AN126" s="5"/>
     </row>
-    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>229</v>
       </c>
@@ -35209,7 +35211,7 @@
       <c r="AM127" s="5"/>
       <c r="AN127" s="5"/>
     </row>
-    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>229</v>
       </c>
@@ -35271,7 +35273,7 @@
       <c r="AM128" s="5"/>
       <c r="AN128" s="5"/>
     </row>
-    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>229</v>
       </c>
@@ -35347,7 +35349,7 @@
       <c r="AM129" s="5"/>
       <c r="AN129" s="5"/>
     </row>
-    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>229</v>
       </c>
@@ -35423,7 +35425,7 @@
       <c r="AM130" s="5"/>
       <c r="AN130" s="5"/>
     </row>
-    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>229</v>
       </c>
@@ -35543,7 +35545,7 @@
         <v>2.1118189460546652</v>
       </c>
     </row>
-    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>229</v>
       </c>
@@ -35663,7 +35665,7 @@
         <v>7.859077296240855</v>
       </c>
     </row>
-    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>229</v>
       </c>
@@ -35743,7 +35745,7 @@
       <c r="AM133" s="5"/>
       <c r="AN133" s="5"/>
     </row>
-    <row r="134" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>229</v>
       </c>
@@ -35823,7 +35825,7 @@
       <c r="AM134" s="5"/>
       <c r="AN134" s="5"/>
     </row>
-    <row r="135" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>229</v>
       </c>
@@ -35887,7 +35889,7 @@
       <c r="AM135" s="5"/>
       <c r="AN135" s="5"/>
     </row>
-    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>229</v>
       </c>
@@ -35951,7 +35953,7 @@
       <c r="AM136" s="5"/>
       <c r="AN136" s="5"/>
     </row>
-    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>229</v>
       </c>
@@ -36043,7 +36045,7 @@
         <v>3.1832256339771967</v>
       </c>
     </row>
-    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>229</v>
       </c>
@@ -36135,7 +36137,7 @@
         <v>27.262952111110874</v>
       </c>
     </row>
-    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>229</v>
       </c>
@@ -36235,7 +36237,7 @@
         <v>5.6082304006199752</v>
       </c>
     </row>
-    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>229</v>
       </c>
@@ -36335,7 +36337,7 @@
         <v>14.860108053160614</v>
       </c>
     </row>
-    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>229</v>
       </c>
@@ -36407,7 +36409,7 @@
       <c r="AM141" s="5"/>
       <c r="AN141" s="5"/>
     </row>
-    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>229</v>
       </c>
@@ -36479,7 +36481,7 @@
       <c r="AM142" s="5"/>
       <c r="AN142" s="5"/>
     </row>
-    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>229</v>
       </c>
@@ -36535,7 +36537,7 @@
       <c r="AM143" s="5"/>
       <c r="AN143" s="5"/>
     </row>
-    <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>229</v>
       </c>
@@ -36591,7 +36593,7 @@
       <c r="AM144" s="5"/>
       <c r="AN144" s="5"/>
     </row>
-    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>229</v>
       </c>
@@ -36691,7 +36693,7 @@
         <v>9.3295280738977713</v>
       </c>
     </row>
-    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>229</v>
       </c>
@@ -36791,7 +36793,7 @@
         <v>85.05763771594664</v>
       </c>
     </row>
-    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>229</v>
       </c>
@@ -36859,7 +36861,7 @@
       <c r="AM147" s="5"/>
       <c r="AN147" s="5"/>
     </row>
-    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>229</v>
       </c>
@@ -36927,7 +36929,7 @@
       <c r="AM148" s="5"/>
       <c r="AN148" s="5"/>
     </row>
-    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>229</v>
       </c>
@@ -36997,7 +36999,7 @@
       <c r="AM149" s="5"/>
       <c r="AN149" s="5"/>
     </row>
-    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>229</v>
       </c>
@@ -37067,7 +37069,7 @@
       <c r="AM150" s="5"/>
       <c r="AN150" s="5"/>
     </row>
-    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>229</v>
       </c>
@@ -37187,7 +37189,7 @@
         <v>2.9911409283854926</v>
       </c>
     </row>
-    <row r="152" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>229</v>
       </c>
@@ -37307,7 +37309,7 @@
         <v>35.271139707736211</v>
       </c>
     </row>
-    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>229</v>
       </c>
@@ -37373,7 +37375,7 @@
       <c r="AM153" s="5"/>
       <c r="AN153" s="5"/>
     </row>
-    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>229</v>
       </c>
@@ -37439,7 +37441,7 @@
       <c r="AM154" s="5"/>
       <c r="AN154" s="5"/>
     </row>
-    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>229</v>
       </c>
@@ -37531,7 +37533,7 @@
       <c r="AM155" s="5"/>
       <c r="AN155" s="5"/>
     </row>
-    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>229</v>
       </c>
@@ -37623,7 +37625,7 @@
       <c r="AM156" s="5"/>
       <c r="AN156" s="5"/>
     </row>
-    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>229</v>
       </c>
@@ -37707,7 +37709,7 @@
         <v>7.3575800242406943</v>
       </c>
     </row>
-    <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>229</v>
       </c>
@@ -37791,7 +37793,7 @@
         <v>65.028771870351434</v>
       </c>
     </row>
-    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>229</v>
       </c>
@@ -37891,7 +37893,7 @@
       </c>
       <c r="AN159" s="5"/>
     </row>
-    <row r="160" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>229</v>
       </c>
@@ -37991,7 +37993,7 @@
       </c>
       <c r="AN160" s="5"/>
     </row>
-    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>229</v>
       </c>
@@ -38055,7 +38057,7 @@
       <c r="AM161" s="5"/>
       <c r="AN161" s="5"/>
     </row>
-    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>229</v>
       </c>
@@ -38119,7 +38121,7 @@
       <c r="AM162" s="5"/>
       <c r="AN162" s="5"/>
     </row>
-    <row r="163" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>229</v>
       </c>
@@ -38223,7 +38225,7 @@
       <c r="AM163" s="5"/>
       <c r="AN163" s="5"/>
     </row>
-    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>229</v>
       </c>
@@ -38327,7 +38329,7 @@
       <c r="AM164" s="5"/>
       <c r="AN164" s="5"/>
     </row>
-    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>229</v>
       </c>
@@ -38415,7 +38417,7 @@
         <v>8.1493716598223251</v>
       </c>
     </row>
-    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>229</v>
       </c>
@@ -38503,7 +38505,7 @@
         <v>67.225932505417248</v>
       </c>
     </row>
-    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>229</v>
       </c>
@@ -38615,7 +38617,7 @@
       <c r="AM167" s="5"/>
       <c r="AN167" s="5"/>
     </row>
-    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>229</v>
       </c>
@@ -38727,7 +38729,7 @@
       <c r="AM168" s="5"/>
       <c r="AN168" s="5"/>
     </row>
-    <row r="169" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>229</v>
       </c>
@@ -38827,7 +38829,7 @@
         <v>15.690710844171676</v>
       </c>
     </row>
-    <row r="170" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>229</v>
       </c>
@@ -38927,7 +38929,7 @@
         <v>158.41690084384459</v>
       </c>
     </row>
-    <row r="171" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>229</v>
       </c>
@@ -39023,7 +39025,7 @@
       <c r="AM171" s="5"/>
       <c r="AN171" s="5"/>
     </row>
-    <row r="172" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>229</v>
       </c>
@@ -39119,7 +39121,7 @@
       <c r="AM172" s="5"/>
       <c r="AN172" s="5"/>
     </row>
-    <row r="173" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>229</v>
       </c>
@@ -39215,7 +39217,7 @@
         <v>10.205543757583161</v>
       </c>
     </row>
-    <row r="174" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>229</v>
       </c>
@@ -39311,7 +39313,7 @@
         <v>103.10000342920543</v>
       </c>
     </row>
-    <row r="175" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>229</v>
       </c>
@@ -39431,7 +39433,7 @@
         <v>4.4073941796536262</v>
       </c>
     </row>
-    <row r="176" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>229</v>
       </c>
@@ -39551,7 +39553,7 @@
         <v>34.247602935553701</v>
       </c>
     </row>
-    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>229</v>
       </c>
@@ -39631,7 +39633,7 @@
       </c>
       <c r="AN177" s="5"/>
     </row>
-    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>229</v>
       </c>
@@ -39711,7 +39713,7 @@
       </c>
       <c r="AN178" s="5"/>
     </row>
-    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>229</v>
       </c>
@@ -39831,7 +39833,7 @@
         <v>2.1936522712203521</v>
       </c>
     </row>
-    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>229</v>
       </c>
@@ -39951,7 +39953,7 @@
         <v>17.103493929724941</v>
       </c>
     </row>
-    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>229</v>
       </c>
@@ -40043,7 +40045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>229</v>
       </c>
@@ -40135,7 +40137,7 @@
         <v>27.235707510469176</v>
       </c>
     </row>
-    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>229</v>
       </c>
@@ -40255,7 +40257,7 @@
         <v>0.82585488110789873</v>
       </c>
     </row>
-    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>229</v>
       </c>
@@ -40375,7 +40377,7 @@
         <v>2.5560779903219721</v>
       </c>
     </row>
-    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>229</v>
       </c>
@@ -40429,7 +40431,7 @@
       <c r="AM185" s="5"/>
       <c r="AN185" s="5"/>
     </row>
-    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>229</v>
       </c>
@@ -40483,7 +40485,7 @@
       <c r="AM186" s="5"/>
       <c r="AN186" s="5"/>
     </row>
-    <row r="187" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>229</v>
       </c>
@@ -40537,7 +40539,7 @@
       <c r="AM187" s="5"/>
       <c r="AN187" s="5"/>
     </row>
-    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>229</v>
       </c>
@@ -40591,7 +40593,7 @@
       <c r="AM188" s="5"/>
       <c r="AN188" s="5"/>
     </row>
-    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>229</v>
       </c>
@@ -40711,7 +40713,7 @@
         <v>2.2614048238350231</v>
       </c>
     </row>
-    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>229</v>
       </c>
@@ -40831,7 +40833,7 @@
         <v>8.5115003532942772</v>
       </c>
     </row>
-    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>229</v>
       </c>
@@ -40891,7 +40893,7 @@
       </c>
       <c r="AN191" s="5"/>
     </row>
-    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>229</v>
       </c>
@@ -40951,7 +40953,7 @@
       </c>
       <c r="AN192" s="5"/>
     </row>
-    <row r="193" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>229</v>
       </c>
@@ -41015,7 +41017,7 @@
         <v>4.3048004918747029</v>
       </c>
     </row>
-    <row r="194" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>229</v>
       </c>
@@ -41079,7 +41081,7 @@
         <v>8.2893733879715441</v>
       </c>
     </row>
-    <row r="195" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>229</v>
       </c>
@@ -41195,7 +41197,7 @@
       </c>
       <c r="AN195" s="5"/>
     </row>
-    <row r="196" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>229</v>
       </c>
@@ -41311,7 +41313,7 @@
       </c>
       <c r="AN196" s="5"/>
     </row>
-    <row r="197" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>229</v>
       </c>
@@ -41411,7 +41413,7 @@
         <v>0.99581249450670151</v>
       </c>
     </row>
-    <row r="198" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>229</v>
       </c>
@@ -41511,7 +41513,7 @@
         <v>5.9773329703262323</v>
       </c>
     </row>
-    <row r="199" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>229</v>
       </c>
@@ -41631,7 +41633,7 @@
         <v>4.2045730546246816</v>
       </c>
     </row>
-    <row r="200" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>229</v>
       </c>
@@ -41751,7 +41753,7 @@
         <v>47.469373712666879</v>
       </c>
     </row>
-    <row r="201" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>229</v>
       </c>
@@ -41871,7 +41873,7 @@
         <v>2.1971485729862139</v>
       </c>
     </row>
-    <row r="202" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>229</v>
       </c>
@@ -41991,7 +41993,7 @@
         <v>9.511406249017675</v>
       </c>
     </row>
-    <row r="203" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>229</v>
       </c>
@@ -42059,7 +42061,7 @@
       <c r="AM203" s="5"/>
       <c r="AN203" s="5"/>
     </row>
-    <row r="204" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>229</v>
       </c>
@@ -42127,7 +42129,7 @@
       <c r="AM204" s="5"/>
       <c r="AN204" s="5"/>
     </row>
-    <row r="205" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>229</v>
       </c>
@@ -42223,7 +42225,7 @@
         <v>2.6063778983355235</v>
       </c>
     </row>
-    <row r="206" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>229</v>
       </c>
@@ -42319,7 +42321,7 @@
         <v>33.907658622040408</v>
       </c>
     </row>
-    <row r="207" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>229</v>
       </c>
@@ -42407,7 +42409,7 @@
       </c>
       <c r="AN207" s="5"/>
     </row>
-    <row r="208" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>229</v>
       </c>
@@ -42495,7 +42497,7 @@
       </c>
       <c r="AN208" s="5"/>
     </row>
-    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>229</v>
       </c>
@@ -42571,7 +42573,7 @@
         <v>3.2575625257415814</v>
       </c>
     </row>
-    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>229</v>
       </c>
@@ -42647,7 +42649,7 @@
         <v>12.082928951700811</v>
       </c>
     </row>
-    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>229</v>
       </c>
@@ -42707,7 +42709,7 @@
       <c r="AM211" s="5"/>
       <c r="AN211" s="5"/>
     </row>
-    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>229</v>
       </c>
@@ -42767,7 +42769,7 @@
       <c r="AM212" s="5"/>
       <c r="AN212" s="5"/>
     </row>
-    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>229</v>
       </c>
@@ -42863,7 +42865,7 @@
         <v>2.357355975520905</v>
       </c>
     </row>
-    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>229</v>
       </c>
@@ -42959,7 +42961,7 @@
         <v>13.413799160253678</v>
       </c>
     </row>
-    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>229</v>
       </c>
@@ -43063,7 +43065,7 @@
       <c r="AM215" s="5"/>
       <c r="AN215" s="5"/>
     </row>
-    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>229</v>
       </c>
@@ -43167,7 +43169,7 @@
       <c r="AM216" s="5"/>
       <c r="AN216" s="5"/>
     </row>
-    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -43251,7 +43253,7 @@
       </c>
       <c r="AN217" s="5"/>
     </row>
-    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -43335,7 +43337,7 @@
       </c>
       <c r="AN218" s="5"/>
     </row>
-    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -43427,7 +43429,7 @@
       <c r="AM219" s="5"/>
       <c r="AN219" s="5"/>
     </row>
-    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
@@ -43519,7 +43521,7 @@
       <c r="AM220" s="5"/>
       <c r="AN220" s="5"/>
     </row>
-    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -43595,7 +43597,7 @@
       <c r="AM221" s="5"/>
       <c r="AN221" s="5"/>
     </row>
-    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -43671,7 +43673,7 @@
       <c r="AM222" s="5"/>
       <c r="AN222" s="5"/>
     </row>
-    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>220</v>
       </c>
@@ -43727,7 +43729,7 @@
       <c r="AM223" s="5"/>
       <c r="AN223" s="5"/>
     </row>
-    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>220</v>
       </c>
@@ -43783,7 +43785,7 @@
       <c r="AM224" s="5"/>
       <c r="AN224" s="5"/>
     </row>
-    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>220</v>
       </c>
@@ -43839,7 +43841,7 @@
       <c r="AM225" s="5"/>
       <c r="AN225" s="5"/>
     </row>
-    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>220</v>
       </c>
@@ -43895,7 +43897,7 @@
       <c r="AM226" s="5"/>
       <c r="AN226" s="5"/>
     </row>
-    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>220</v>
       </c>
@@ -43951,7 +43953,7 @@
       <c r="AM227" s="5"/>
       <c r="AN227" s="5"/>
     </row>
-    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>220</v>
       </c>
@@ -44007,7 +44009,7 @@
       <c r="AM228" s="5"/>
       <c r="AN228" s="5"/>
     </row>
-    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>220</v>
       </c>
@@ -44099,7 +44101,7 @@
       <c r="AM229" s="5"/>
       <c r="AN229" s="5"/>
     </row>
-    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>220</v>
       </c>
@@ -44191,7 +44193,7 @@
       <c r="AM230" s="5"/>
       <c r="AN230" s="5"/>
     </row>
-    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>220</v>
       </c>
@@ -44279,7 +44281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>220</v>
       </c>
@@ -44367,7 +44369,7 @@
         <v>0.34112852813494743</v>
       </c>
     </row>
-    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>220</v>
       </c>
@@ -44423,7 +44425,7 @@
       </c>
       <c r="AN233" s="5"/>
     </row>
-    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>220</v>
       </c>
@@ -44479,7 +44481,7 @@
       </c>
       <c r="AN234" s="5"/>
     </row>
-    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>220</v>
       </c>
@@ -44583,7 +44585,7 @@
         <v>0.30169514484472421</v>
       </c>
     </row>
-    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>220</v>
       </c>
@@ -44687,7 +44689,7 @@
         <v>0.26450194478879629</v>
       </c>
     </row>
-    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>220</v>
       </c>
@@ -44779,7 +44781,7 @@
         <v>2.5550182603694003</v>
       </c>
     </row>
-    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>220</v>
       </c>
@@ -44871,7 +44873,7 @@
         <v>8.8178054607003791</v>
       </c>
     </row>
-    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>220</v>
       </c>
@@ -44943,7 +44945,7 @@
         <v>0.76317790099405036</v>
       </c>
     </row>
-    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>220</v>
       </c>
@@ -45015,7 +45017,7 @@
         <v>0.63918698551446318</v>
       </c>
     </row>
-    <row r="241" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>220</v>
       </c>
@@ -45071,7 +45073,7 @@
       <c r="AM241" s="5"/>
       <c r="AN241" s="5"/>
     </row>
-    <row r="242" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>220</v>
       </c>
@@ -45127,7 +45129,7 @@
       <c r="AM242" s="5"/>
       <c r="AN242" s="5"/>
     </row>
-    <row r="243" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>220</v>
       </c>
@@ -45183,7 +45185,7 @@
       <c r="AM243" s="5"/>
       <c r="AN243" s="5"/>
     </row>
-    <row r="244" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>220</v>
       </c>
@@ -45239,7 +45241,7 @@
       <c r="AM244" s="5"/>
       <c r="AN244" s="5"/>
     </row>
-    <row r="245" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>220</v>
       </c>
@@ -45295,7 +45297,7 @@
       <c r="AM245" s="5"/>
       <c r="AN245" s="5"/>
     </row>
-    <row r="246" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>220</v>
       </c>
@@ -45351,7 +45353,7 @@
       <c r="AM246" s="5"/>
       <c r="AN246" s="5"/>
     </row>
-    <row r="247" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>220</v>
       </c>
@@ -45407,7 +45409,7 @@
       </c>
       <c r="AN247" s="5"/>
     </row>
-    <row r="248" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>220</v>
       </c>
@@ -45463,7 +45465,7 @@
       </c>
       <c r="AN248" s="5"/>
     </row>
-    <row r="249" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>220</v>
       </c>
@@ -45519,7 +45521,7 @@
       <c r="AM249" s="5"/>
       <c r="AN249" s="5"/>
     </row>
-    <row r="250" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>220</v>
       </c>
@@ -45575,7 +45577,7 @@
       <c r="AM250" s="5"/>
       <c r="AN250" s="5"/>
     </row>
-    <row r="251" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>220</v>
       </c>
@@ -45659,7 +45661,7 @@
         <v>0.76136760212888199</v>
       </c>
     </row>
-    <row r="252" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>220</v>
       </c>
@@ -45743,7 +45745,7 @@
         <v>3.8407882988431505</v>
       </c>
     </row>
-    <row r="253" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>220</v>
       </c>
@@ -45819,7 +45821,7 @@
       <c r="AM253" s="5"/>
       <c r="AN253" s="5"/>
     </row>
-    <row r="254" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>220</v>
       </c>
@@ -45895,7 +45897,7 @@
       <c r="AM254" s="5"/>
       <c r="AN254" s="5"/>
     </row>
-    <row r="255" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>220</v>
       </c>
@@ -45991,7 +45993,7 @@
         <v>0.24632093650642314</v>
       </c>
     </row>
-    <row r="256" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>220</v>
       </c>
@@ -46087,7 +46089,7 @@
         <v>0.39662830144225975</v>
       </c>
     </row>
-    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>220</v>
       </c>
@@ -46195,7 +46197,7 @@
       <c r="AM257" s="5"/>
       <c r="AN257" s="5"/>
     </row>
-    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>220</v>
       </c>
@@ -46303,7 +46305,7 @@
       <c r="AM258" s="5"/>
       <c r="AN258" s="5"/>
     </row>
-    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>220</v>
       </c>
@@ -46359,7 +46361,7 @@
       </c>
       <c r="AN259" s="5"/>
     </row>
-    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>220</v>
       </c>
@@ -46415,7 +46417,7 @@
       </c>
       <c r="AN260" s="5"/>
     </row>
-    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>220</v>
       </c>
@@ -46471,7 +46473,7 @@
       <c r="AM261" s="5"/>
       <c r="AN261" s="5"/>
     </row>
-    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>220</v>
       </c>
@@ -46527,7 +46529,7 @@
       <c r="AM262" s="5"/>
       <c r="AN262" s="5"/>
     </row>
-    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>220</v>
       </c>
@@ -46583,7 +46585,7 @@
       <c r="AM263" s="5"/>
       <c r="AN263" s="5"/>
     </row>
-    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>220</v>
       </c>
@@ -46639,7 +46641,7 @@
       <c r="AM264" s="5"/>
       <c r="AN264" s="5"/>
     </row>
-    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>220</v>
       </c>
@@ -46695,7 +46697,7 @@
       </c>
       <c r="AN265" s="5"/>
     </row>
-    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>220</v>
       </c>
@@ -46751,7 +46753,7 @@
       </c>
       <c r="AN266" s="5"/>
     </row>
-    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>220</v>
       </c>
@@ -46811,7 +46813,7 @@
         <v>1.0711510148208017</v>
       </c>
     </row>
-    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>220</v>
       </c>
@@ -46871,7 +46873,7 @@
         <v>1.1805512937605773</v>
       </c>
     </row>
-    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>220</v>
       </c>
@@ -46991,7 +46993,7 @@
         <v>2.6723887644160804</v>
       </c>
     </row>
-    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>220</v>
       </c>
@@ -47111,7 +47113,7 @@
         <v>3.7359510371818483</v>
       </c>
     </row>
-    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>220</v>
       </c>
@@ -47171,7 +47173,7 @@
       <c r="AM271" s="5"/>
       <c r="AN271" s="5"/>
     </row>
-    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>220</v>
       </c>
@@ -47231,7 +47233,7 @@
       <c r="AM272" s="5"/>
       <c r="AN272" s="5"/>
     </row>
-    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>220</v>
       </c>
@@ -47287,7 +47289,7 @@
       <c r="AM273" s="5"/>
       <c r="AN273" s="5"/>
     </row>
-    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>220</v>
       </c>
@@ -47343,7 +47345,7 @@
       <c r="AM274" s="5"/>
       <c r="AN274" s="5"/>
     </row>
-    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>220</v>
       </c>
@@ -47399,7 +47401,7 @@
       <c r="AM275" s="5"/>
       <c r="AN275" s="5"/>
     </row>
-    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>220</v>
       </c>
@@ -47455,7 +47457,7 @@
       <c r="AM276" s="5"/>
       <c r="AN276" s="5"/>
     </row>
-    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>220</v>
       </c>
@@ -47511,7 +47513,7 @@
       </c>
       <c r="AN277" s="5"/>
     </row>
-    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>220</v>
       </c>
@@ -47567,7 +47569,7 @@
       </c>
       <c r="AN278" s="5"/>
     </row>
-    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>220</v>
       </c>
@@ -47655,7 +47657,7 @@
         <v>1.2066590100107886</v>
       </c>
     </row>
-    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>220</v>
       </c>
@@ -47743,7 +47745,7 @@
         <v>3.9942119971126591</v>
       </c>
     </row>
-    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>220</v>
       </c>
@@ -47863,7 +47865,7 @@
         <v>1.0332573060347152</v>
       </c>
     </row>
-    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>220</v>
       </c>
@@ -47983,7 +47985,7 @@
         <v>5.1718949205918889</v>
       </c>
     </row>
-    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>220</v>
       </c>
@@ -48055,7 +48057,7 @@
         <v>1.80329818301849</v>
       </c>
     </row>
-    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>220</v>
       </c>
@@ -48127,7 +48129,7 @@
         <v>2.482412595295266</v>
       </c>
     </row>
-    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>220</v>
       </c>
@@ -48183,7 +48185,7 @@
       <c r="AM285" s="5"/>
       <c r="AN285" s="5"/>
     </row>
-    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>220</v>
       </c>
@@ -48239,7 +48241,7 @@
       <c r="AM286" s="5"/>
       <c r="AN286" s="5"/>
     </row>
-    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>220</v>
       </c>
@@ -48343,7 +48345,7 @@
         <v>0.85584713855578187</v>
       </c>
     </row>
-    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>220</v>
       </c>
@@ -48447,7 +48449,7 @@
         <v>1.3650994077108154</v>
       </c>
     </row>
-    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>220</v>
       </c>
@@ -48535,7 +48537,7 @@
         <v>1.6504580837896912</v>
       </c>
     </row>
-    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>220</v>
       </c>
@@ -48623,7 +48625,7 @@
         <v>0.26583339899975411</v>
       </c>
     </row>
-    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>220</v>
       </c>
@@ -48699,7 +48701,7 @@
       <c r="AM291" s="5"/>
       <c r="AN291" s="5"/>
     </row>
-    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>220</v>
       </c>
@@ -48775,7 +48777,7 @@
       <c r="AM292" s="5"/>
       <c r="AN292" s="5"/>
     </row>
-    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>220</v>
       </c>
@@ -48855,7 +48857,7 @@
       <c r="AM293" s="5"/>
       <c r="AN293" s="5"/>
     </row>
-    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>220</v>
       </c>
@@ -48935,7 +48937,7 @@
       <c r="AM294" s="5"/>
       <c r="AN294" s="5"/>
     </row>
-    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>220</v>
       </c>
@@ -49011,7 +49013,7 @@
       <c r="AM295" s="5"/>
       <c r="AN295" s="5"/>
     </row>
-    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>220</v>
       </c>
@@ -49087,7 +49089,7 @@
       <c r="AM296" s="5"/>
       <c r="AN296" s="5"/>
     </row>
-    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>220</v>
       </c>
@@ -49191,7 +49193,7 @@
       <c r="AM297" s="5"/>
       <c r="AN297" s="5"/>
     </row>
-    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>220</v>
       </c>
@@ -49295,7 +49297,7 @@
       <c r="AM298" s="5"/>
       <c r="AN298" s="5"/>
     </row>
-    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>220</v>
       </c>
@@ -49375,7 +49377,7 @@
         <v>0.80054314616811872</v>
       </c>
     </row>
-    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>220</v>
       </c>
@@ -49455,7 +49457,7 @@
         <v>2.2749670774362887</v>
       </c>
     </row>
-    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>220</v>
       </c>
@@ -49547,7 +49549,7 @@
       <c r="AM301" s="5"/>
       <c r="AN301" s="5"/>
     </row>
-    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>220</v>
       </c>
@@ -49639,7 +49641,7 @@
       <c r="AM302" s="5"/>
       <c r="AN302" s="5"/>
     </row>
-    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>220</v>
       </c>
@@ -49695,7 +49697,7 @@
       </c>
       <c r="AN303" s="5"/>
     </row>
-    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>220</v>
       </c>
@@ -49751,7 +49753,7 @@
       </c>
       <c r="AN304" s="5"/>
     </row>
-    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>220</v>
       </c>
@@ -49807,7 +49809,7 @@
       <c r="AM305" s="5"/>
       <c r="AN305" s="5"/>
     </row>
-    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>220</v>
       </c>
@@ -49863,7 +49865,7 @@
       <c r="AM306" s="5"/>
       <c r="AN306" s="5"/>
     </row>
-    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>220</v>
       </c>
@@ -49963,7 +49965,7 @@
       <c r="AM307" s="5"/>
       <c r="AN307" s="5"/>
     </row>
-    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>220</v>
       </c>
@@ -50063,7 +50065,7 @@
       <c r="AM308" s="5"/>
       <c r="AN308" s="5"/>
     </row>
-    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>220</v>
       </c>
@@ -50119,7 +50121,7 @@
       </c>
       <c r="AN309" s="5"/>
     </row>
-    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>220</v>
       </c>
@@ -50175,7 +50177,7 @@
       </c>
       <c r="AN310" s="5"/>
     </row>
-    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>220</v>
       </c>
@@ -50239,7 +50241,7 @@
       <c r="AM311" s="5"/>
       <c r="AN311" s="5"/>
     </row>
-    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>220</v>
       </c>
@@ -50303,7 +50305,7 @@
       <c r="AM312" s="5"/>
       <c r="AN312" s="5"/>
     </row>
-    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>220</v>
       </c>
@@ -50359,7 +50361,7 @@
       <c r="AM313" s="5"/>
       <c r="AN313" s="5"/>
     </row>
-    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>220</v>
       </c>
@@ -50415,7 +50417,7 @@
       <c r="AM314" s="5"/>
       <c r="AN314" s="5"/>
     </row>
-    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>220</v>
       </c>
@@ -50507,7 +50509,7 @@
       <c r="AM315" s="5"/>
       <c r="AN315" s="5"/>
     </row>
-    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>220</v>
       </c>
@@ -50599,7 +50601,7 @@
       <c r="AM316" s="5"/>
       <c r="AN316" s="5"/>
     </row>
-    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>220</v>
       </c>
@@ -50675,7 +50677,7 @@
       </c>
       <c r="AN317" s="5"/>
     </row>
-    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>220</v>
       </c>
@@ -50751,7 +50753,7 @@
       </c>
       <c r="AN318" s="5"/>
     </row>
-    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>220</v>
       </c>
@@ -50807,7 +50809,7 @@
       <c r="AM319" s="5"/>
       <c r="AN319" s="5"/>
     </row>
-    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>220</v>
       </c>
@@ -50863,7 +50865,7 @@
       <c r="AM320" s="5"/>
       <c r="AN320" s="5"/>
     </row>
-    <row r="321" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>222</v>
       </c>
@@ -50947,7 +50949,7 @@
       <c r="AM321" s="5"/>
       <c r="AN321" s="5"/>
     </row>
-    <row r="322" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>222</v>
       </c>
@@ -51031,7 +51033,7 @@
       <c r="AM322" s="5"/>
       <c r="AN322" s="5"/>
     </row>
-    <row r="323" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>222</v>
       </c>
@@ -51151,7 +51153,7 @@
         <v>0.60060844132288793</v>
       </c>
     </row>
-    <row r="324" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>222</v>
       </c>
@@ -51271,7 +51273,7 @@
         <v>1.7017290901865134</v>
       </c>
     </row>
-    <row r="325" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>222</v>
       </c>
@@ -51391,7 +51393,7 @@
         <v>0.66711380576915413</v>
       </c>
     </row>
-    <row r="326" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>222</v>
       </c>
@@ -51511,7 +51513,7 @@
         <v>0.55626759936507442</v>
       </c>
     </row>
-    <row r="327" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>222</v>
       </c>
@@ -51631,7 +51633,7 @@
         <v>1.6026507014631222</v>
       </c>
     </row>
-    <row r="328" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>222</v>
       </c>
@@ -51751,7 +51753,7 @@
         <v>2.5890702286056166</v>
       </c>
     </row>
-    <row r="329" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>222</v>
       </c>
@@ -51867,7 +51869,7 @@
         <v>0.35264136675326596</v>
       </c>
     </row>
-    <row r="330" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>222</v>
       </c>
@@ -51983,7 +51985,7 @@
         <v>1.0099424862954489</v>
       </c>
     </row>
-    <row r="331" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>222</v>
       </c>
@@ -52095,7 +52097,7 @@
       <c r="AM331" s="5"/>
       <c r="AN331" s="5"/>
     </row>
-    <row r="332" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>222</v>
       </c>
@@ -52207,7 +52209,7 @@
       <c r="AM332" s="5"/>
       <c r="AN332" s="5"/>
     </row>
-    <row r="333" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>222</v>
       </c>
@@ -52323,7 +52325,7 @@
       </c>
       <c r="AN333" s="5"/>
     </row>
-    <row r="334" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>222</v>
       </c>
@@ -52439,7 +52441,7 @@
       </c>
       <c r="AN334" s="5"/>
     </row>
-    <row r="335" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>222</v>
       </c>
@@ -52531,7 +52533,7 @@
       <c r="AM335" s="5"/>
       <c r="AN335" s="5"/>
     </row>
-    <row r="336" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>222</v>
       </c>
@@ -52623,7 +52625,7 @@
       <c r="AM336" s="5"/>
       <c r="AN336" s="5"/>
     </row>
-    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>222</v>
       </c>
@@ -52743,7 +52745,7 @@
         <v>0.71507874120508086</v>
       </c>
     </row>
-    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>222</v>
       </c>
@@ -52863,7 +52865,7 @@
         <v>1.3989481773489094</v>
       </c>
     </row>
-    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>222</v>
       </c>
@@ -52955,7 +52957,7 @@
       <c r="AM339" s="5"/>
       <c r="AN339" s="5"/>
     </row>
-    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>222</v>
       </c>
@@ -53047,7 +53049,7 @@
       <c r="AM340" s="5"/>
       <c r="AN340" s="5"/>
     </row>
-    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>222</v>
       </c>
@@ -53167,7 +53169,7 @@
         <v>0.80118261261942814</v>
       </c>
     </row>
-    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>222</v>
       </c>
@@ -53287,7 +53289,7 @@
         <v>1.1621522343634425</v>
       </c>
     </row>
-    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>222</v>
       </c>
@@ -53403,7 +53405,7 @@
       </c>
       <c r="AN343" s="5"/>
     </row>
-    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>222</v>
       </c>
@@ -53519,7 +53521,7 @@
       </c>
       <c r="AN344" s="5"/>
     </row>
-    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>222</v>
       </c>
@@ -53639,7 +53641,7 @@
         <v>0.85895293895285707</v>
       </c>
     </row>
-    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>222</v>
       </c>
@@ -53759,7 +53761,7 @@
         <v>1.9944580064225881</v>
       </c>
     </row>
-    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>222</v>
       </c>
@@ -53851,7 +53853,7 @@
         <v>0.60297510072637273</v>
       </c>
     </row>
-    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>222</v>
       </c>
@@ -53943,7 +53945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>222</v>
       </c>
@@ -54051,7 +54053,7 @@
       <c r="AM349" s="5"/>
       <c r="AN349" s="5"/>
     </row>
-    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>222</v>
       </c>
@@ -54159,7 +54161,7 @@
       <c r="AM350" s="5"/>
       <c r="AN350" s="5"/>
     </row>
-    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>222</v>
       </c>
@@ -54227,7 +54229,7 @@
       </c>
       <c r="AN351" s="5"/>
     </row>
-    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>222</v>
       </c>
@@ -54295,7 +54297,7 @@
       </c>
       <c r="AN352" s="5"/>
     </row>
-    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>222</v>
       </c>
@@ -54415,7 +54417,7 @@
         <v>2.924019057103441</v>
       </c>
     </row>
-    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>222</v>
       </c>
@@ -54535,7 +54537,7 @@
         <v>7.9681981123098113</v>
       </c>
     </row>
-    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>222</v>
       </c>
@@ -54655,7 +54657,7 @@
         <v>0.4219783457173687</v>
       </c>
     </row>
-    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>222</v>
       </c>
@@ -54775,7 +54777,7 @@
         <v>0.60536744197537662</v>
       </c>
     </row>
-    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>222</v>
       </c>
@@ -54895,7 +54897,7 @@
         <v>0.58950502370267188</v>
       </c>
     </row>
-    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>222</v>
       </c>
@@ -55015,7 +55017,7 @@
         <v>1.5663767631664942</v>
       </c>
     </row>
-    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>222</v>
       </c>
@@ -55135,7 +55137,7 @@
         <v>0.91113405339783682</v>
       </c>
     </row>
-    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>222</v>
       </c>
@@ -55255,7 +55257,7 @@
         <v>1.532432040198384</v>
       </c>
     </row>
-    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>222</v>
       </c>
@@ -55355,7 +55357,7 @@
         <v>0.21095363723946589</v>
       </c>
     </row>
-    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>222</v>
       </c>
@@ -55455,7 +55457,7 @@
         <v>1.7495613095092002</v>
       </c>
     </row>
-    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>222</v>
       </c>
@@ -55575,7 +55577,7 @@
         <v>0.57576799093034237</v>
       </c>
     </row>
-    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>222</v>
       </c>
@@ -55695,7 +55697,7 @@
         <v>1.8279208721721529</v>
       </c>
     </row>
-    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>222</v>
       </c>
@@ -55795,7 +55797,7 @@
         <v>0.87361307370762631</v>
       </c>
     </row>
-    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>222</v>
       </c>
@@ -55895,7 +55897,7 @@
         <v>1.5407357903804515</v>
       </c>
     </row>
-    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>222</v>
       </c>
@@ -56015,7 +56017,7 @@
         <v>1.0349554420896072</v>
       </c>
     </row>
-    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>222</v>
       </c>
@@ -56135,7 +56137,7 @@
         <v>4.3308966219970335</v>
       </c>
     </row>
-    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>222</v>
       </c>
@@ -56223,7 +56225,7 @@
       </c>
       <c r="AN369" s="5"/>
     </row>
-    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>222</v>
       </c>
@@ -56311,7 +56313,7 @@
       </c>
       <c r="AN370" s="5"/>
     </row>
-    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>222</v>
       </c>
@@ -56407,7 +56409,7 @@
         <v>0.83490508228148552</v>
       </c>
     </row>
-    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>222</v>
       </c>
@@ -56503,7 +56505,7 @@
         <v>1.7323124553189764</v>
       </c>
     </row>
-    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>222</v>
       </c>
@@ -56623,7 +56625,7 @@
         <v>0.91636459877732346</v>
       </c>
     </row>
-    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>222</v>
       </c>
@@ -56743,7 +56745,7 @@
         <v>1.1825804591521036</v>
       </c>
     </row>
-    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>222</v>
       </c>
@@ -56859,7 +56861,7 @@
         <v>0.45753210368920366</v>
       </c>
     </row>
-    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>222</v>
       </c>
@@ -56975,7 +56977,7 @@
         <v>1.0522310344570827</v>
       </c>
     </row>
-    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>222</v>
       </c>
@@ -57041,7 +57043,7 @@
       <c r="AM377" s="5"/>
       <c r="AN377" s="5"/>
     </row>
-    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>222</v>
       </c>
@@ -57107,7 +57109,7 @@
       <c r="AM378" s="5"/>
       <c r="AN378" s="5"/>
     </row>
-    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>222</v>
       </c>
@@ -57223,7 +57225,7 @@
         <v>0.48845512453384005</v>
       </c>
     </row>
-    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>222</v>
       </c>
@@ -57339,7 +57341,7 @@
         <v>0.86774798675843012</v>
       </c>
     </row>
-    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>222</v>
       </c>
@@ -57427,7 +57429,7 @@
         <v>0.44367805903030233</v>
       </c>
     </row>
-    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>222</v>
       </c>
@@ -57515,7 +57517,7 @@
         <v>2.7332997362361611</v>
       </c>
     </row>
-    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>222</v>
       </c>
@@ -57615,7 +57617,7 @@
       </c>
       <c r="AN383" s="5"/>
     </row>
-    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>222</v>
       </c>
@@ -57715,7 +57717,7 @@
       </c>
       <c r="AN384" s="5"/>
     </row>
-    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>222</v>
       </c>
@@ -57807,7 +57809,7 @@
         <v>0.94200176136663738</v>
       </c>
     </row>
-    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>222</v>
       </c>
@@ -57899,7 +57901,7 @@
         <v>8.0658572074581532</v>
       </c>
     </row>
-    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>222</v>
       </c>
@@ -58011,7 +58013,7 @@
       <c r="AM387" s="5"/>
       <c r="AN387" s="5"/>
     </row>
-    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>222</v>
       </c>
@@ -58123,7 +58125,7 @@
       <c r="AM388" s="5"/>
       <c r="AN388" s="5"/>
     </row>
-    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>222</v>
       </c>
@@ -58199,7 +58201,7 @@
       <c r="AM389" s="5"/>
       <c r="AN389" s="5"/>
     </row>
-    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>222</v>
       </c>
@@ -58275,7 +58277,7 @@
       <c r="AM390" s="5"/>
       <c r="AN390" s="5"/>
     </row>
-    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>222</v>
       </c>
@@ -58395,7 +58397,7 @@
         <v>0.909006834029641</v>
       </c>
     </row>
-    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>222</v>
       </c>
@@ -58515,7 +58517,7 @@
         <v>1.9019423065798744</v>
       </c>
     </row>
-    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>222</v>
       </c>
@@ -58619,7 +58621,7 @@
         <v>0.19116991072291067</v>
       </c>
     </row>
-    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>222</v>
       </c>
@@ -58723,7 +58725,7 @@
         <v>0.77666173798485361</v>
       </c>
     </row>
-    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>222</v>
       </c>
@@ -58839,7 +58841,7 @@
         <v>0.47808989631711174</v>
       </c>
     </row>
-    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>222</v>
       </c>
@@ -58955,7 +58957,7 @@
         <v>0.79475721063649496</v>
       </c>
     </row>
-    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>222</v>
       </c>
@@ -59063,7 +59065,7 @@
       <c r="AM397" s="5"/>
       <c r="AN397" s="5"/>
     </row>
-    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>222</v>
       </c>
@@ -59171,7 +59173,7 @@
       <c r="AM398" s="5"/>
       <c r="AN398" s="5"/>
     </row>
-    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>222</v>
       </c>
@@ -59291,7 +59293,7 @@
         <v>0.72062571538772935</v>
       </c>
     </row>
-    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>222</v>
       </c>
@@ -59411,7 +59413,7 @@
         <v>0.58702071968402236</v>
       </c>
     </row>
-    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>222</v>
       </c>
@@ -59523,7 +59525,7 @@
       <c r="AM401" s="5"/>
       <c r="AN401" s="5"/>
     </row>
-    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>222</v>
       </c>
@@ -59635,7 +59637,7 @@
       <c r="AM402" s="5"/>
       <c r="AN402" s="5"/>
     </row>
-    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>222</v>
       </c>
@@ -59695,7 +59697,7 @@
         <v>1.0429826335115626</v>
       </c>
     </row>
-    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>222</v>
       </c>
@@ -59755,7 +59757,7 @@
         <v>1.6722439511298908</v>
       </c>
     </row>
-    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>222</v>
       </c>
@@ -59875,7 +59877,7 @@
         <v>1.127255074664236</v>
       </c>
     </row>
-    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>222</v>
       </c>
@@ -59995,7 +59997,7 @@
         <v>1.2267547242925563</v>
       </c>
     </row>
-    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>222</v>
       </c>
@@ -60063,7 +60065,7 @@
       <c r="AM407" s="5"/>
       <c r="AN407" s="5"/>
     </row>
-    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>222</v>
       </c>
@@ -60131,7 +60133,7 @@
       <c r="AM408" s="5"/>
       <c r="AN408" s="5"/>
     </row>
-    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>222</v>
       </c>
@@ -60219,7 +60221,7 @@
       <c r="AM409" s="5"/>
       <c r="AN409" s="5"/>
     </row>
-    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>222</v>
       </c>
@@ -60307,7 +60309,7 @@
       <c r="AM410" s="5"/>
       <c r="AN410" s="5"/>
     </row>
-    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>222</v>
       </c>
@@ -60363,7 +60365,7 @@
       <c r="AM411" s="5"/>
       <c r="AN411" s="5"/>
     </row>
-    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>222</v>
       </c>
@@ -60419,7 +60421,7 @@
       <c r="AM412" s="5"/>
       <c r="AN412" s="5"/>
     </row>
-    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>222</v>
       </c>
@@ -60539,7 +60541,7 @@
         <v>0.35118453006061628</v>
       </c>
     </row>
-    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>222</v>
       </c>
@@ -60659,7 +60661,7 @@
         <v>0.75788800400601974</v>
       </c>
     </row>
-    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>222</v>
       </c>
@@ -60779,7 +60781,7 @@
         <v>0.58988348057801165</v>
       </c>
     </row>
-    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>222</v>
       </c>
@@ -60899,7 +60901,7 @@
         <v>0.48171792362477484</v>
       </c>
     </row>
-    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>226</v>
       </c>
@@ -61019,7 +61021,7 @@
         <v>0.66125010423817765</v>
       </c>
     </row>
-    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>226</v>
       </c>
@@ -61139,7 +61141,7 @@
         <v>1.2228634846541671</v>
       </c>
     </row>
-    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>226</v>
       </c>
@@ -61251,7 +61253,7 @@
       <c r="AM419" s="5"/>
       <c r="AN419" s="5"/>
     </row>
-    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>226</v>
       </c>
@@ -61363,7 +61365,7 @@
       <c r="AM420" s="5"/>
       <c r="AN420" s="5"/>
     </row>
-    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>226</v>
       </c>
@@ -61455,7 +61457,7 @@
       <c r="AM421" s="5"/>
       <c r="AN421" s="5"/>
     </row>
-    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>226</v>
       </c>
@@ -61547,7 +61549,7 @@
       <c r="AM422" s="5"/>
       <c r="AN422" s="5"/>
     </row>
-    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>226</v>
       </c>
@@ -61603,7 +61605,7 @@
       <c r="AM423" s="5"/>
       <c r="AN423" s="5"/>
     </row>
-    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>226</v>
       </c>
@@ -61659,7 +61661,7 @@
       <c r="AM424" s="5"/>
       <c r="AN424" s="5"/>
     </row>
-    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>226</v>
       </c>
@@ -61715,7 +61717,7 @@
       <c r="AM425" s="5"/>
       <c r="AN425" s="5"/>
     </row>
-    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>226</v>
       </c>
@@ -61771,7 +61773,7 @@
       <c r="AM426" s="5"/>
       <c r="AN426" s="5"/>
     </row>
-    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>226</v>
       </c>
@@ -61827,7 +61829,7 @@
       </c>
       <c r="AN427" s="5"/>
     </row>
-    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>226</v>
       </c>
@@ -61883,7 +61885,7 @@
       </c>
       <c r="AN428" s="5"/>
     </row>
-    <row r="429" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>226</v>
       </c>
@@ -61939,7 +61941,7 @@
       <c r="AM429" s="5"/>
       <c r="AN429" s="5"/>
     </row>
-    <row r="430" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>226</v>
       </c>
@@ -61995,7 +61997,7 @@
       <c r="AM430" s="5"/>
       <c r="AN430" s="5"/>
     </row>
-    <row r="431" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>226</v>
       </c>
@@ -62051,7 +62053,7 @@
       <c r="AM431" s="5"/>
       <c r="AN431" s="5"/>
     </row>
-    <row r="432" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>226</v>
       </c>
@@ -62107,7 +62109,7 @@
       <c r="AM432" s="5"/>
       <c r="AN432" s="5"/>
     </row>
-    <row r="433" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>226</v>
       </c>
@@ -62163,7 +62165,7 @@
       </c>
       <c r="AN433" s="5"/>
     </row>
-    <row r="434" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>226</v>
       </c>
@@ -62219,7 +62221,7 @@
       </c>
       <c r="AN434" s="5"/>
     </row>
-    <row r="435" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>226</v>
       </c>
@@ -62273,7 +62275,7 @@
       <c r="AM435" s="5"/>
       <c r="AN435" s="5"/>
     </row>
-    <row r="436" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>226</v>
       </c>
@@ -62327,7 +62329,7 @@
       <c r="AM436" s="5"/>
       <c r="AN436" s="5"/>
     </row>
-    <row r="437" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>226</v>
       </c>
@@ -62383,7 +62385,7 @@
       <c r="AM437" s="5"/>
       <c r="AN437" s="5"/>
     </row>
-    <row r="438" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>226</v>
       </c>
@@ -62439,7 +62441,7 @@
       <c r="AM438" s="5"/>
       <c r="AN438" s="5"/>
     </row>
-    <row r="439" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>226</v>
       </c>
@@ -62543,7 +62545,7 @@
       <c r="AM439" s="5"/>
       <c r="AN439" s="5"/>
     </row>
-    <row r="440" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>226</v>
       </c>
@@ -62669,13 +62671,13 @@
       <selection activeCell="B9" sqref="B2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>334</v>
       </c>
@@ -62683,7 +62685,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>336</v>
       </c>
@@ -62691,7 +62693,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>338</v>
       </c>
@@ -62699,7 +62701,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>252</v>
       </c>
@@ -62707,7 +62709,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>341</v>
       </c>
@@ -62715,7 +62717,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>343</v>
       </c>
@@ -62723,7 +62725,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>345</v>
       </c>
@@ -62731,7 +62733,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>347</v>
       </c>
@@ -62739,7 +62741,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>251</v>
       </c>
@@ -62747,7 +62749,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>350</v>
       </c>
@@ -62755,7 +62757,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>352</v>
       </c>
@@ -62763,7 +62765,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>354</v>
       </c>
@@ -62771,7 +62773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>356</v>
       </c>
@@ -62779,7 +62781,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>254</v>
       </c>
@@ -62787,7 +62789,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>359</v>
       </c>
@@ -62795,7 +62797,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>361</v>
       </c>
@@ -62803,7 +62805,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>363</v>
       </c>
@@ -62811,7 +62813,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>273</v>
       </c>
@@ -62819,7 +62821,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>366</v>
       </c>
@@ -62827,7 +62829,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>368</v>
       </c>
@@ -62835,7 +62837,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>370</v>
       </c>
@@ -62843,7 +62845,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>372</v>
       </c>
@@ -62851,7 +62853,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>374</v>
       </c>
@@ -62859,7 +62861,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>376</v>
       </c>
@@ -62867,7 +62869,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>256</v>
       </c>
@@ -62875,7 +62877,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>250</v>
       </c>
@@ -62883,7 +62885,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>317</v>
       </c>
@@ -62891,7 +62893,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>381</v>
       </c>
@@ -62899,7 +62901,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>260</v>
       </c>
@@ -62907,7 +62909,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>384</v>
       </c>
@@ -62915,7 +62917,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>386</v>
       </c>
@@ -62923,7 +62925,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>388</v>
       </c>
@@ -62931,7 +62933,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>275</v>
       </c>
@@ -62939,7 +62941,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>391</v>
       </c>
@@ -62947,7 +62949,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>393</v>
       </c>
@@ -62955,7 +62957,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>315</v>
       </c>
@@ -62963,7 +62965,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>396</v>
       </c>
@@ -62971,7 +62973,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>398</v>
       </c>
@@ -62979,7 +62981,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>328</v>
       </c>
@@ -62987,7 +62989,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>401</v>
       </c>
@@ -62995,7 +62997,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>403</v>
       </c>
@@ -63003,7 +63005,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>405</v>
       </c>
@@ -63011,7 +63013,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>266</v>
       </c>
@@ -63019,7 +63021,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>408</v>
       </c>
@@ -63027,7 +63029,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>410</v>
       </c>
@@ -63035,7 +63037,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>412</v>
       </c>
@@ -63043,7 +63045,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>414</v>
       </c>
@@ -63051,7 +63053,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>416</v>
       </c>
@@ -63072,21 +63074,21 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>482</v>
       </c>
@@ -63103,7 +63105,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
@@ -63120,7 +63122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>33</v>
       </c>
@@ -63138,7 +63140,7 @@
       </c>
       <c r="G6" s="54"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>33</v>
       </c>
@@ -63155,7 +63157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>33</v>
       </c>
@@ -63172,7 +63174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>33</v>
       </c>
@@ -63189,7 +63191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
@@ -63206,7 +63208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
@@ -63223,7 +63225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>47</v>
       </c>
@@ -63240,7 +63242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
@@ -63255,7 +63257,7 @@
       </c>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
@@ -63272,7 +63274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>47</v>
       </c>
@@ -63289,7 +63291,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>47</v>
       </c>
@@ -63306,7 +63308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>58</v>
       </c>
@@ -63323,7 +63325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>58</v>
       </c>
@@ -63340,7 +63342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>58</v>
       </c>
@@ -63357,7 +63359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>58</v>
       </c>
@@ -63374,7 +63376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>58</v>
       </c>
@@ -63391,7 +63393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>58</v>
       </c>
@@ -63419,14 +63421,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
@@ -63443,7 +63445,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
@@ -63460,7 +63462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
@@ -63473,7 +63475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
@@ -63486,7 +63488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
         <v>248</v>
@@ -63501,7 +63503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27" t="s">
@@ -63514,7 +63516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="s">
@@ -63527,7 +63529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>47</v>
       </c>
@@ -63544,7 +63546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
@@ -63557,7 +63559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
@@ -63568,7 +63570,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
         <v>248</v>
@@ -63583,7 +63585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
@@ -63596,7 +63598,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
@@ -63609,7 +63611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>58</v>
       </c>
@@ -63626,7 +63628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
@@ -63639,7 +63641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
@@ -63652,7 +63654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
         <v>248</v>
@@ -63667,7 +63669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
@@ -63680,7 +63682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
@@ -63704,15 +63706,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.1640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="60"/>
+    <col min="3" max="8" width="5.109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.77734375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
@@ -63724,7 +63726,7 @@
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -63732,25 +63734,25 @@
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>482</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="68"/>
       <c r="C4" s="47">
@@ -63772,7 +63774,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>33</v>
       </c>
@@ -63798,7 +63800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>47</v>
       </c>
@@ -63822,7 +63824,7 @@
       </c>
       <c r="H6" s="67"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>58</v>
       </c>
@@ -63863,9 +63865,9 @@
       <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
@@ -63891,21 +63893,21 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
@@ -63931,7 +63933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>47</v>
       </c>
@@ -63955,7 +63957,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>58</v>
       </c>
@@ -63996,9 +63998,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -64006,25 +64008,25 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="86">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="87">
         <v>2000</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86">
+      <c r="D3" s="89"/>
+      <c r="E3" s="87">
         <v>2001</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="86">
+      <c r="F3" s="89"/>
+      <c r="G3" s="87">
         <v>2002</v>
       </c>
-      <c r="H3" s="88"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H3" s="89"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>482</v>
       </c>
@@ -64050,7 +64052,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
@@ -64076,7 +64078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>47</v>
       </c>
@@ -64100,7 +64102,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>58</v>
       </c>
@@ -64124,7 +64126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
       <c r="L12" s="25"/>
@@ -64150,20 +64152,20 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="60" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="60"/>
+    <col min="9" max="16384" width="10.77734375" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>418</v>
       </c>
@@ -64171,25 +64173,25 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="80">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="81">
         <v>2000</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="80">
+      <c r="D3" s="83"/>
+      <c r="E3" s="81">
         <v>2001</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="80">
+      <c r="F3" s="83"/>
+      <c r="G3" s="81">
         <v>2002</v>
       </c>
-      <c r="H3" s="82"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>482</v>
       </c>
@@ -64215,7 +64217,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>33</v>
       </c>
@@ -64241,7 +64243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>47</v>
       </c>
@@ -64265,7 +64267,7 @@
       </c>
       <c r="H6" s="67"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>58</v>
       </c>
@@ -64289,7 +64291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="55" t="s">
         <v>481</v>
       </c>
@@ -64336,13 +64338,13 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>418</v>
       </c>
@@ -64352,31 +64354,31 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="83" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="83" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="83" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="85"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="86"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>475</v>
       </c>
@@ -64402,7 +64404,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -64428,7 +64430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="27" t="s">
         <v>248</v>
@@ -64452,7 +64454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -64478,7 +64480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="27" t="s">
         <v>248</v>
@@ -64502,7 +64504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2002</v>
       </c>
@@ -64526,7 +64528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
         <v>248</v>
@@ -64548,7 +64550,7 @@
       </c>
       <c r="H10" s="36"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>501</v>
       </c>
@@ -64558,7 +64560,7 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>

--- a/Datasets/homicide_report_total_and_sex.xlsx
+++ b/Datasets/homicide_report_total_and_sex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\isi\T2WML\t2wml\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3117D1D-F5F7-4FEB-AD0B-18BA0A5C236A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7510F0E3-D663-4675-B0BB-048EB926F260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2396,7 +2396,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4978,7 +4978,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
